--- a/CustomLocalization/Localization/RogueTech/RU/DarkAge/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/DarkAge/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="1445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1441">
   <si>
     <t>chassisdef_adder_ADR-I.Description.Details</t>
   </si>
@@ -1399,9 +1399,6 @@
     <t>chassisdef_hecatoncheires_HEC-6C.YangsThoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">A 3050's era design, the Hecatoncheires is the FWL's attempt to produce a dedicated heavy scout suitable for the modern battlefield. Based on a previously rejected redesign of the venerable Cyclops, the Hecatoncheires downsizes the classic cyclops to 65 tons in weight. A Beagle Active probe, paired with a C3 unit make up the mechs specialist electronics.  4 Medium Lasers and a pair of SRM-6's with Artemis IV provide a nasty punch at close range, while a Gauss Rifle covers longer ranges.</t>
-  </si>
-  <si>
     <t>A 3050's era design, the Hecatoncheires is the FWL's attempt to produce a dedicated heavy scout suitable for the modern battlefield. Based on a previously rejected redesign of the venerable Cyclops, the Hecatoncheires downsizes the classic cyclops to 65 tons in weight. A Beagle Active probe, paired with a C3 unit make up the mechs specialist electronics. 4 Medium Lasers and a pair of SRM-6's with Artemis IV provide a nasty punch at close range, while a Gauss Rifle covers longer ranges.</t>
   </si>
   <si>
@@ -2620,9 +2617,6 @@
     <t>chassisdef_marauder_ii_MAD-6S.YangsThoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">Appearing in 3012, the Marauder II is a redesign of the classic Marauder, turning the 75 ton Heavy Mech into a 100 ton Assault. Originally a Wolfs Dragoons exclusive Mech, it wasn’t until after the 4th War of Succession in 3030 that the Mech would spread beyond the Dragoons. Powered by a 300 rated Light Engine, the Marauder II MAD-6S is armed with a Gauss Rifle, paired ER PPC’s and Medium Pulse Lasers. AMS and an ER Small Laser round out the design.  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.18.&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Appearing in 3012, the Marauder II is a redesign of the classic Marauder, turning the 75 ton Heavy Mech into a 100 ton Assault. Originally a Wolfs Dragoons exclusive Mech, it wasn’t until after the 4th War of Succession in 3030 that the Mech would spread beyond the Dragoons. Powered by a 300 rated Light Engine, the Marauder II MAD-6S is armed with a Gauss Rifle, paired ER PPC’s and Medium Pulse Lasers. AMS and an ER Small Laser round out the design. &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.18.&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3416,9 +3410,6 @@
     <t>chassisdef_shadow_hawk_iic_SHD-IIC-9.YangsThoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">Boss, these Shadow Hawk IICs are a sleek redesign of the classic Shadow Hawk.  They are lighter and faster than the original but still manage to pack a similar punch.</t>
-  </si>
-  <si>
     <t>Boss, these Shadow Hawk IICs are a sleek redesign of the classic Shadow Hawk. They are lighter and faster than the original but still manage to pack a similar punch.</t>
   </si>
   <si>
@@ -3770,9 +3761,6 @@
   </si>
   <si>
     <t>chassisdef_summoner_SMN-J.YangsThoughts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hey Boss, the clans call these things the Summoner but I've always called em' the Thor.  These OmniMechs are a tad light on available pod space for their weight class and those early structural mounts are not compatable with anything else. But with that huge engine and lots of jumpjet hardpoints you will be hard pressed to find many 'Mechs its size that are faster.</t>
   </si>
   <si>
     <t>Hey Boss, the clans call these things the Summoner but I've always called em' the Thor. These OmniMechs are a tad light on available pod space for their weight class and those early structural mounts are not compatable with anything else. But with that huge engine and lots of jumpjet hardpoints you will be hard pressed to find many 'Mechs its size that are faster.</t>
@@ -6090,18 +6078,18 @@
   </si>
   <si>
     <t xml:space="preserve">Slower than the Medium Tank, but possessing heavier armor and fire power, the Heavy Tank is a fearsome combatant. Carrying an array of ranged weapons, the Heavy Tank is designed to support allied units from range.
- &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Heavy Ferro
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values       A        S  &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt;       350     35
-&lt;b&gt;Left&lt;/b&gt;         284     35
-&lt;b&gt;Right&lt;/b&gt;       284     35
-&lt;b&gt;Rear&lt;/b&gt;        236     35
-&lt;b&gt;Turret&lt;/b&gt;      271     35
-&lt;b&gt;Total&lt;/b&gt;      1425    175
+  &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
+  &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
+  &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;Armor:&lt;/b&gt; Heavy Ferro
+ &lt;b&gt;Structure:&lt;/b&gt; Structure
+ &lt;b&gt;Values A S &lt;/b&gt;
+ &lt;b&gt;Front&lt;/b&gt; 350 35
+ &lt;b&gt;Left&lt;/b&gt; 284 35
+ &lt;b&gt;Right&lt;/b&gt; 284 35
+ &lt;b&gt;Rear&lt;/b&gt; 236 35
+ &lt;b&gt;Turret&lt;/b&gt; 271 35
+ &lt;b&gt;Total&lt;/b&gt; 1425 175
 ---
 The Winston Combat Vehicle was a Republic of the Sphere frontline combat vehicle that began production in 3085. A Dark Age variant developed in 3114, this model is powered by an XXL Fusion Engine. It is armed with two AMS, two Clan-built LRM-15s, and twin TSEMP Cannons. The Targeting Computer remains as well.
  &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
@@ -6146,18 +6134,18 @@
   </si>
   <si>
     <t xml:space="preserve">Slower than the Medium Tank, but possessing heavier armor and fire power, the Heavy Tank is a fearsome combatant. Carrying an array of ranged weapons, the Heavy Tank is designed to support allied units from range.
- &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Heavy Ferro
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values       A        S  &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt;       350     35
-&lt;b&gt;Left&lt;/b&gt;         284     35
-&lt;b&gt;Right&lt;/b&gt;       284     35
-&lt;b&gt;Rear&lt;/b&gt;        236     35
-&lt;b&gt;Turret&lt;/b&gt;      271     35
-&lt;b&gt;Total&lt;/b&gt;      1425    175
+  &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
+  &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
+  &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;Armor:&lt;/b&gt; Heavy Ferro
+ &lt;b&gt;Structure:&lt;/b&gt; Structure
+ &lt;b&gt;Values A S &lt;/b&gt;
+ &lt;b&gt;Front&lt;/b&gt; 350 35
+ &lt;b&gt;Left&lt;/b&gt; 284 35
+ &lt;b&gt;Right&lt;/b&gt; 284 35
+ &lt;b&gt;Rear&lt;/b&gt; 236 35
+ &lt;b&gt;Turret&lt;/b&gt; 271 35
+ &lt;b&gt;Total&lt;/b&gt; 1425 175
 ---
 The Winston Combat Vehicle was a Republic of the Sphere frontline combat vehicle that began production in 3085. A late Dark Age variant, introduced in 3133, this variant is powered by an XXL Fusion Engine and is armed with a pair of Large Re-Engineered Lasers and a pair of Clan-spec LRM-15s sharing three tons of ammo. Front-mounted AMS adds to the tank's defenses.
  &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
@@ -6557,7 +6545,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1">
@@ -8331,31 +8320,31 @@
         <v>339</v>
       </c>
     </row>
-    <row r="162" s="3" customFormat="1">
-      <c r="A162" s="3" t="s">
+    <row r="162">
+      <c r="A162" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>342</v>
+      <c r="C162" s="2" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="163" s="3" customFormat="1">
       <c r="A163" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="C163" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>338</v>
@@ -8366,29 +8355,29 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C165" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" s="3" customFormat="1">
       <c r="A166" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="C166" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>18</v>
@@ -8399,95 +8388,95 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="169" s="3" customFormat="1">
       <c r="A169" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="C169" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="C171" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="172" s="3" customFormat="1">
       <c r="A172" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="C172" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="174" s="3" customFormat="1">
       <c r="A174" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="C174" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="175" s="3" customFormat="1">
       <c r="A175" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="C175" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>152</v>
@@ -8498,29 +8487,29 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="C177" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="178" s="3" customFormat="1">
       <c r="A178" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="C178" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>152</v>
@@ -8531,29 +8520,29 @@
     </row>
     <row r="180" s="3" customFormat="1">
       <c r="A180" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="181" s="3" customFormat="1">
       <c r="A181" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="C181" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>152</v>
@@ -8564,29 +8553,29 @@
     </row>
     <row r="183" s="3" customFormat="1">
       <c r="A183" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="184" s="3" customFormat="1">
       <c r="A184" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="C184" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>4</v>
@@ -8597,29 +8586,29 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="C186" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="187" s="3" customFormat="1">
       <c r="A187" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="C187" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>185</v>
@@ -8630,392 +8619,392 @@
     </row>
     <row r="189" s="3" customFormat="1">
       <c r="A189" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="190" s="3" customFormat="1">
       <c r="A190" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="C190" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="C192" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="193" s="3" customFormat="1">
       <c r="A193" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="C193" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="C195" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="196" s="3" customFormat="1">
       <c r="A196" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="C196" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="C198" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="199" s="3" customFormat="1">
       <c r="A199" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="C199" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="C201" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="202" s="3" customFormat="1">
       <c r="A202" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="C202" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="C203" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="C204" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="205" s="3" customFormat="1">
       <c r="A205" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="C205" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="C206" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="C207" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="208" s="3" customFormat="1">
       <c r="A208" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="C208" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="C209" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="C210" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="211" s="3" customFormat="1">
       <c r="A211" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="C211" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="C213" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="214" s="3" customFormat="1">
       <c r="A214" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B214" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="C214" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="C216" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="217" s="3" customFormat="1">
       <c r="A217" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="C217" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>467</v>
-      </c>
       <c r="C219" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="220" s="3" customFormat="1">
       <c r="A220" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B220" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="C220" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="C222" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="223" s="3" customFormat="1">
       <c r="A223" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B223" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="C223" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>199</v>
@@ -9026,29 +9015,29 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="C225" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="226" s="3" customFormat="1">
       <c r="A226" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B226" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="C226" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>199</v>
@@ -9059,29 +9048,29 @@
     </row>
     <row r="228" s="3" customFormat="1">
       <c r="A228" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B228" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="C228" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="229" s="3" customFormat="1">
       <c r="A229" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B229" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="C229" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>4</v>
@@ -9092,29 +9081,29 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="C231" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="232" s="3" customFormat="1">
       <c r="A232" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B232" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="C232" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>185</v>
@@ -9125,29 +9114,29 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>498</v>
-      </c>
       <c r="C234" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="235" s="3" customFormat="1">
       <c r="A235" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B235" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="C235" s="3" t="s">
         <v>500</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>4</v>
@@ -9158,29 +9147,29 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="C237" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="238" s="3" customFormat="1">
       <c r="A238" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B238" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="C238" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>4</v>
@@ -9191,29 +9180,29 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="C240" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="241" s="3" customFormat="1">
       <c r="A241" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="C241" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>185</v>
@@ -9224,29 +9213,29 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="C243" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="244" s="3" customFormat="1">
       <c r="A244" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B244" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="C244" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>242</v>
@@ -9257,194 +9246,194 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="C246" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="247" s="3" customFormat="1">
       <c r="A247" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B247" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="C247" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="C248" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="C249" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="250" s="3" customFormat="1">
       <c r="A250" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B250" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="C250" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>540</v>
-      </c>
       <c r="C252" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="253" s="3" customFormat="1">
       <c r="A253" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B253" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="C253" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>546</v>
-      </c>
       <c r="C255" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="256" s="3" customFormat="1">
       <c r="A256" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B256" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="C256" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>552</v>
-      </c>
       <c r="C258" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="259" s="3" customFormat="1">
       <c r="A259" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B259" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="C259" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>558</v>
-      </c>
       <c r="C261" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="262" s="3" customFormat="1">
       <c r="A262" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B262" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="C262" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>185</v>
@@ -9455,29 +9444,29 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>564</v>
-      </c>
       <c r="C264" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="265" s="3" customFormat="1">
       <c r="A265" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B265" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="C265" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>152</v>
@@ -9488,106 +9477,106 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="C267" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="268" s="3" customFormat="1">
       <c r="A268" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B268" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="C268" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>575</v>
-      </c>
       <c r="C269" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="270" s="3" customFormat="1">
       <c r="A270" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="C270" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>580</v>
-      </c>
       <c r="C271" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="272" s="3" customFormat="1">
       <c r="A272" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B272" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="C272" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="C273" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>588</v>
-      </c>
       <c r="C274" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="275" s="3" customFormat="1">
       <c r="A275" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B275" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="C275" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>108</v>
@@ -9598,29 +9587,29 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>594</v>
-      </c>
       <c r="C277" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="278" s="3" customFormat="1">
       <c r="A278" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B278" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="C278" s="3" t="s">
         <v>596</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>18</v>
@@ -9631,62 +9620,62 @@
     </row>
     <row r="280" s="3" customFormat="1">
       <c r="A280" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B280" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="C280" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="281" s="3" customFormat="1">
       <c r="A281" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B281" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="C281" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="C282" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="283" s="3" customFormat="1">
       <c r="A283" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B283" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="C283" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="284" s="3" customFormat="1">
       <c r="A284" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B284" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="C284" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>152</v>
@@ -9697,29 +9686,29 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>616</v>
-      </c>
       <c r="C286" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="287" s="3" customFormat="1">
       <c r="A287" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B287" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="C287" s="3" t="s">
         <v>618</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>18</v>
@@ -9730,29 +9719,29 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B289" s="2" t="s">
-        <v>622</v>
-      </c>
       <c r="C289" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="290" s="3" customFormat="1">
       <c r="A290" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B290" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="C290" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>199</v>
@@ -9761,31 +9750,31 @@
         <v>200</v>
       </c>
     </row>
-    <row r="292" s="3" customFormat="1">
-      <c r="A292" s="3" t="s">
+    <row r="292">
+      <c r="A292" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B292" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>629</v>
+      <c r="C292" s="2" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="293" s="3" customFormat="1">
       <c r="A293" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C293" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>18</v>
@@ -9796,29 +9785,29 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="296" s="3" customFormat="1">
       <c r="A296" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>636</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>18</v>
@@ -9829,29 +9818,29 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="299" s="3" customFormat="1">
       <c r="A299" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C299" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>258</v>
@@ -9862,62 +9851,62 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="302" s="3" customFormat="1">
       <c r="A302" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>648</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="305" s="3" customFormat="1">
       <c r="A305" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>656</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>4</v>
@@ -9928,29 +9917,29 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="308" s="3" customFormat="1">
       <c r="A308" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>662</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>18</v>
@@ -9961,29 +9950,29 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="311" s="3" customFormat="1">
       <c r="A311" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C311" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>185</v>
@@ -9994,29 +9983,29 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="314" s="3" customFormat="1">
       <c r="A314" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>674</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>185</v>
@@ -10027,29 +10016,29 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="317" s="3" customFormat="1">
       <c r="A317" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C317" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>4</v>
@@ -10060,29 +10049,29 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="320" s="3" customFormat="1">
       <c r="A320" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C320" s="3" t="s">
         <v>686</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>242</v>
@@ -10093,29 +10082,29 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="323" s="3" customFormat="1">
       <c r="A323" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C323" s="3" t="s">
         <v>692</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>185</v>
@@ -10126,29 +10115,29 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="326" s="3" customFormat="1">
       <c r="A326" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>698</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>18</v>
@@ -10159,95 +10148,95 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C328" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="329" s="3" customFormat="1">
       <c r="A329" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>705</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B330" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="332" s="3" customFormat="1">
       <c r="A332" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C332" s="3" t="s">
         <v>711</v>
-      </c>
-      <c r="B332" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="335" s="3" customFormat="1">
       <c r="A335" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C335" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="B335" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C335" s="3" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>185</v>
@@ -10258,29 +10247,29 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="338" s="3" customFormat="1">
       <c r="A338" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C338" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="B338" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>323</v>
@@ -10291,95 +10280,95 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="341" s="3" customFormat="1">
       <c r="A341" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C341" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="B341" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C342" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="344" s="3" customFormat="1">
       <c r="A344" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C344" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="B344" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="347" s="3" customFormat="1">
       <c r="A347" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C347" s="3" t="s">
         <v>745</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>37</v>
@@ -10390,128 +10379,128 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="350" s="3" customFormat="1">
       <c r="A350" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>751</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="353" s="3" customFormat="1">
       <c r="A353" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C353" s="3" t="s">
         <v>758</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C354" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="355" s="3" customFormat="1">
       <c r="A355" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C355" s="3" t="s">
         <v>764</v>
-      </c>
-      <c r="B355" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="356" s="3" customFormat="1">
       <c r="A356" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C356" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="B356" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="359" s="3" customFormat="1">
       <c r="A359" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C359" s="3" t="s">
         <v>773</v>
-      </c>
-      <c r="B359" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>242</v>
@@ -10522,161 +10511,161 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="362" s="3" customFormat="1">
       <c r="A362" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C362" s="3" t="s">
         <v>779</v>
-      </c>
-      <c r="B362" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="365" s="3" customFormat="1">
       <c r="A365" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="368" s="3" customFormat="1">
       <c r="A368" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="371" s="3" customFormat="1">
       <c r="A371" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="374" s="3" customFormat="1">
       <c r="A374" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C374" s="3" t="s">
         <v>795</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="C374" s="3" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>18</v>
@@ -10687,29 +10676,29 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="377" s="3" customFormat="1">
       <c r="A377" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="C377" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="C377" s="3" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>4</v>
@@ -10720,29 +10709,29 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="380" s="3" customFormat="1">
       <c r="A380" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C380" s="3" t="s">
         <v>807</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>185</v>
@@ -10753,29 +10742,29 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="383" s="3" customFormat="1">
       <c r="A383" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="C383" s="3" t="s">
         <v>813</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="C383" s="3" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>152</v>
@@ -10784,31 +10773,31 @@
         <v>153</v>
       </c>
     </row>
-    <row r="385" s="3" customFormat="1">
-      <c r="A385" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="B385" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>819</v>
+    <row r="385">
+      <c r="A385" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="386" s="3" customFormat="1">
       <c r="A386" s="3" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>108</v>
@@ -10819,62 +10808,62 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="389" s="3" customFormat="1">
       <c r="A389" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="392" s="3" customFormat="1">
       <c r="A392" s="3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>242</v>
@@ -10885,29 +10874,29 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="395" s="3" customFormat="1">
       <c r="A395" s="3" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>108</v>
@@ -10918,29 +10907,29 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="398" s="3" customFormat="1">
       <c r="A398" s="3" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>18</v>
@@ -10951,62 +10940,62 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="401" s="3" customFormat="1">
       <c r="A401" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="404" s="3" customFormat="1">
       <c r="A404" s="3" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>18</v>
@@ -11017,29 +11006,29 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="407" s="3" customFormat="1">
       <c r="A407" s="3" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>4</v>
@@ -11050,29 +11039,29 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="410" s="3" customFormat="1">
       <c r="A410" s="3" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>18</v>
@@ -11083,29 +11072,29 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="413" s="3" customFormat="1">
       <c r="A413" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>4</v>
@@ -11116,62 +11105,62 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="416" s="3" customFormat="1">
       <c r="A416" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="419" s="3" customFormat="1">
       <c r="A419" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>4</v>
@@ -11182,29 +11171,29 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="422" s="3" customFormat="1">
       <c r="A422" s="3" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>152</v>
@@ -11213,31 +11202,31 @@
         <v>153</v>
       </c>
     </row>
-    <row r="424" s="3" customFormat="1">
-      <c r="A424" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="B424" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>903</v>
+    <row r="424">
+      <c r="A424" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="425" s="3" customFormat="1">
       <c r="A425" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>242</v>
@@ -11248,29 +11237,29 @@
     </row>
     <row r="427" s="3" customFormat="1">
       <c r="A427" s="3" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="428" s="3" customFormat="1">
       <c r="A428" s="3" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>108</v>
@@ -11281,293 +11270,293 @@
     </row>
     <row r="430" s="3" customFormat="1">
       <c r="A430" s="3" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="431" s="3" customFormat="1">
       <c r="A431" s="3" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="434" s="3" customFormat="1">
       <c r="A434" s="3" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="437" s="3" customFormat="1">
       <c r="A437" s="3" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="440" s="3" customFormat="1">
       <c r="A440" s="3" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="443" s="3" customFormat="1">
       <c r="A443" s="3" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="446" s="3" customFormat="1">
       <c r="A446" s="3" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="449" s="3" customFormat="1">
       <c r="A449" s="3" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="452" s="3" customFormat="1">
       <c r="A452" s="3" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="454" s="3" customFormat="1">
       <c r="A454" s="3" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="455" s="3" customFormat="1">
       <c r="A455" s="3" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>242</v>
@@ -11578,29 +11567,29 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="458" s="3" customFormat="1">
       <c r="A458" s="3" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>199</v>
@@ -11611,62 +11600,62 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="461" s="3" customFormat="1">
       <c r="A461" s="3" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="464" s="3" customFormat="1">
       <c r="A464" s="3" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>258</v>
@@ -11677,29 +11666,29 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="467" s="3" customFormat="1">
       <c r="A467" s="3" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>199</v>
@@ -11710,29 +11699,29 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="470" s="3" customFormat="1">
       <c r="A470" s="3" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>199</v>
@@ -11743,29 +11732,29 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="473" s="3" customFormat="1">
       <c r="A473" s="3" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>199</v>
@@ -11776,29 +11765,29 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="476" s="3" customFormat="1">
       <c r="A476" s="3" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>199</v>
@@ -11809,29 +11798,29 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="479" s="3" customFormat="1">
       <c r="A479" s="3" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>242</v>
@@ -11842,29 +11831,29 @@
     </row>
     <row r="481" s="3" customFormat="1">
       <c r="A481" s="3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="482" s="3" customFormat="1">
       <c r="A482" s="3" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>242</v>
@@ -11875,95 +11864,95 @@
     </row>
     <row r="484" s="3" customFormat="1">
       <c r="A484" s="3" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="485" s="3" customFormat="1">
       <c r="A485" s="3" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="488" s="3" customFormat="1">
       <c r="A488" s="3" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="491" s="3" customFormat="1">
       <c r="A491" s="3" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>242</v>
@@ -11974,29 +11963,29 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="494" s="3" customFormat="1">
       <c r="A494" s="3" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>242</v>
@@ -12007,29 +11996,29 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="497" s="3" customFormat="1">
       <c r="A497" s="3" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>242</v>
@@ -12040,29 +12029,29 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="500" s="3" customFormat="1">
       <c r="A500" s="3" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>4</v>
@@ -12073,29 +12062,29 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="503" s="3" customFormat="1">
       <c r="A503" s="3" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>185</v>
@@ -12106,29 +12095,29 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="506" s="3" customFormat="1">
       <c r="A506" s="3" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>18</v>
@@ -12139,29 +12128,29 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="509" s="3" customFormat="1">
       <c r="A509" s="3" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>4</v>
@@ -12172,29 +12161,29 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="512" s="3" customFormat="1">
       <c r="A512" s="3" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>185</v>
@@ -12205,29 +12194,29 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="515" s="3" customFormat="1">
       <c r="A515" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>185</v>
@@ -12238,62 +12227,62 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="518" s="3" customFormat="1">
       <c r="A518" s="3" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="521" s="3" customFormat="1">
       <c r="A521" s="3" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>242</v>
@@ -12304,29 +12293,29 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="524" s="3" customFormat="1">
       <c r="A524" s="3" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>108</v>
@@ -12337,29 +12326,29 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="527" s="3" customFormat="1">
       <c r="A527" s="3" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>108</v>
@@ -12370,29 +12359,29 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="530" s="3" customFormat="1">
       <c r="A530" s="3" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>18</v>
@@ -12403,62 +12392,62 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="533" s="3" customFormat="1">
       <c r="A533" s="3" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="536" s="3" customFormat="1">
       <c r="A536" s="3" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>108</v>
@@ -12469,62 +12458,62 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="539" s="3" customFormat="1">
       <c r="A539" s="3" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="542" s="3" customFormat="1">
       <c r="A542" s="3" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="B543" s="2" t="s">
         <v>108</v>
@@ -12535,29 +12524,29 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="545" s="3" customFormat="1">
       <c r="A545" s="3" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="B546" s="2" t="s">
         <v>108</v>
@@ -12568,29 +12557,29 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="548" s="3" customFormat="1">
       <c r="A548" s="3" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="B549" s="2" t="s">
         <v>108</v>
@@ -12601,29 +12590,29 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="551" s="3" customFormat="1">
       <c r="A551" s="3" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B552" s="2" t="s">
         <v>108</v>
@@ -12634,29 +12623,29 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="554" s="3" customFormat="1">
       <c r="A554" s="3" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="B555" s="2" t="s">
         <v>18</v>
@@ -12667,29 +12656,29 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="557" s="3" customFormat="1">
       <c r="A557" s="3" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B558" s="2" t="s">
         <v>242</v>
@@ -12700,29 +12689,29 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="560" s="3" customFormat="1">
       <c r="A560" s="3" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B561" s="2" t="s">
         <v>18</v>
@@ -12733,18 +12722,18 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="563" s="3" customFormat="1">
       <c r="A563" s="3" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>1</v>
@@ -12755,7 +12744,7 @@
     </row>
     <row r="564" s="3" customFormat="1">
       <c r="A564" s="3" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="B564" s="3" t="s">
         <v>9</v>
@@ -12766,7 +12755,7 @@
     </row>
     <row r="565" s="3" customFormat="1">
       <c r="A565" s="3" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>15</v>
@@ -12777,7 +12766,7 @@
     </row>
     <row r="566" s="3" customFormat="1">
       <c r="A566" s="3" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>23</v>
@@ -12788,7 +12777,7 @@
     </row>
     <row r="567" s="3" customFormat="1">
       <c r="A567" s="3" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="B567" s="3" t="s">
         <v>23</v>
@@ -12799,10 +12788,10 @@
     </row>
     <row r="568" s="3" customFormat="1">
       <c r="A568" s="3" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C568" s="3" t="s">
         <v>35</v>
@@ -12810,7 +12799,7 @@
     </row>
     <row r="569" s="3" customFormat="1">
       <c r="A569" s="3" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B569" s="3" t="s">
         <v>42</v>
@@ -12821,7 +12810,7 @@
     </row>
     <row r="570" s="3" customFormat="1">
       <c r="A570" s="3" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>49</v>
@@ -12832,7 +12821,7 @@
     </row>
     <row r="571" s="3" customFormat="1">
       <c r="A571" s="3" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>57</v>
@@ -12843,7 +12832,7 @@
     </row>
     <row r="572" s="3" customFormat="1">
       <c r="A572" s="3" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>65</v>
@@ -12854,7 +12843,7 @@
     </row>
     <row r="573" s="3" customFormat="1">
       <c r="A573" s="3" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>71</v>
@@ -12865,7 +12854,7 @@
     </row>
     <row r="574" s="3" customFormat="1">
       <c r="A574" s="3" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>79</v>
@@ -12876,7 +12865,7 @@
     </row>
     <row r="575" s="3" customFormat="1">
       <c r="A575" s="3" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>86</v>
@@ -12887,7 +12876,7 @@
     </row>
     <row r="576" s="3" customFormat="1">
       <c r="A576" s="3" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>93</v>
@@ -12898,7 +12887,7 @@
     </row>
     <row r="577" s="3" customFormat="1">
       <c r="A577" s="3" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>99</v>
@@ -12909,7 +12898,7 @@
     </row>
     <row r="578" s="3" customFormat="1">
       <c r="A578" s="3" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>105</v>
@@ -12920,7 +12909,7 @@
     </row>
     <row r="579" s="3" customFormat="1">
       <c r="A579" s="3" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>114</v>
@@ -12931,7 +12920,7 @@
     </row>
     <row r="580" s="3" customFormat="1">
       <c r="A580" s="3" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="B580" s="3" t="s">
         <v>114</v>
@@ -12942,7 +12931,7 @@
     </row>
     <row r="581" s="3" customFormat="1">
       <c r="A581" s="3" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B581" s="3" t="s">
         <v>114</v>
@@ -12953,7 +12942,7 @@
     </row>
     <row r="582" s="3" customFormat="1">
       <c r="A582" s="3" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="B582" s="3" t="s">
         <v>114</v>
@@ -12964,7 +12953,7 @@
     </row>
     <row r="583" s="3" customFormat="1">
       <c r="A583" s="3" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>114</v>
@@ -12975,7 +12964,7 @@
     </row>
     <row r="584" s="3" customFormat="1">
       <c r="A584" s="3" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>114</v>
@@ -12986,7 +12975,7 @@
     </row>
     <row r="585" s="3" customFormat="1">
       <c r="A585" s="3" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>136</v>
@@ -12997,7 +12986,7 @@
     </row>
     <row r="586" s="3" customFormat="1">
       <c r="A586" s="3" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>142</v>
@@ -13008,7 +12997,7 @@
     </row>
     <row r="587" s="3" customFormat="1">
       <c r="A587" s="3" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>149</v>
@@ -13019,7 +13008,7 @@
     </row>
     <row r="588" s="3" customFormat="1">
       <c r="A588" s="3" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>158</v>
@@ -13030,7 +13019,7 @@
     </row>
     <row r="589" s="3" customFormat="1">
       <c r="A589" s="3" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>164</v>
@@ -13041,7 +13030,7 @@
     </row>
     <row r="590" s="3" customFormat="1">
       <c r="A590" s="3" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>170</v>
@@ -13052,7 +13041,7 @@
     </row>
     <row r="591" s="3" customFormat="1">
       <c r="A591" s="3" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>176</v>
@@ -13063,7 +13052,7 @@
     </row>
     <row r="592" s="3" customFormat="1">
       <c r="A592" s="3" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="B592" s="3" t="s">
         <v>182</v>
@@ -13074,7 +13063,7 @@
     </row>
     <row r="593" s="3" customFormat="1">
       <c r="A593" s="3" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="B593" s="3" t="s">
         <v>190</v>
@@ -13085,7 +13074,7 @@
     </row>
     <row r="594" s="3" customFormat="1">
       <c r="A594" s="3" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="B594" s="3" t="s">
         <v>196</v>
@@ -13096,7 +13085,7 @@
     </row>
     <row r="595" s="3" customFormat="1">
       <c r="A595" s="3" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="B595" s="3" t="s">
         <v>205</v>
@@ -13107,7 +13096,7 @@
     </row>
     <row r="596" s="3" customFormat="1">
       <c r="A596" s="3" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>212</v>
@@ -13118,18 +13107,18 @@
     </row>
     <row r="597" s="3" customFormat="1">
       <c r="A597" s="3" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="598" s="3" customFormat="1">
       <c r="A598" s="3" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>225</v>
@@ -13140,7 +13129,7 @@
     </row>
     <row r="599" s="3" customFormat="1">
       <c r="A599" s="3" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>232</v>
@@ -13151,7 +13140,7 @@
     </row>
     <row r="600" s="3" customFormat="1">
       <c r="A600" s="3" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="B600" s="3" t="s">
         <v>239</v>
@@ -13162,18 +13151,18 @@
     </row>
     <row r="601" s="3" customFormat="1">
       <c r="A601" s="3" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="602" s="3" customFormat="1">
       <c r="A602" s="3" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>255</v>
@@ -13184,7 +13173,7 @@
     </row>
     <row r="603" s="3" customFormat="1">
       <c r="A603" s="3" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>263</v>
@@ -13195,7 +13184,7 @@
     </row>
     <row r="604" s="3" customFormat="1">
       <c r="A604" s="3" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>270</v>
@@ -13206,7 +13195,7 @@
     </row>
     <row r="605" s="3" customFormat="1">
       <c r="A605" s="3" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>276</v>
@@ -13217,7 +13206,7 @@
     </row>
     <row r="606" s="3" customFormat="1">
       <c r="A606" s="3" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>282</v>
@@ -13228,7 +13217,7 @@
     </row>
     <row r="607" s="3" customFormat="1">
       <c r="A607" s="3" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="B607" s="3" t="s">
         <v>288</v>
@@ -13239,7 +13228,7 @@
     </row>
     <row r="608" s="3" customFormat="1">
       <c r="A608" s="3" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B608" s="3" t="s">
         <v>294</v>
@@ -13250,7 +13239,7 @@
     </row>
     <row r="609" s="3" customFormat="1">
       <c r="A609" s="3" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>301</v>
@@ -13261,7 +13250,7 @@
     </row>
     <row r="610" s="3" customFormat="1">
       <c r="A610" s="3" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>301</v>
@@ -13272,7 +13261,7 @@
     </row>
     <row r="611" s="3" customFormat="1">
       <c r="A611" s="3" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>301</v>
@@ -13283,7 +13272,7 @@
     </row>
     <row r="612" s="3" customFormat="1">
       <c r="A612" s="3" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>301</v>
@@ -13294,7 +13283,7 @@
     </row>
     <row r="613" s="3" customFormat="1">
       <c r="A613" s="3" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="B613" s="3" t="s">
         <v>301</v>
@@ -13305,18 +13294,18 @@
     </row>
     <row r="614" s="3" customFormat="1">
       <c r="A614" s="3" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="615" s="3" customFormat="1">
       <c r="A615" s="3" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>328</v>
@@ -13327,7 +13316,7 @@
     </row>
     <row r="616" s="3" customFormat="1">
       <c r="A616" s="3" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="B616" s="3" t="s">
         <v>335</v>
@@ -13338,1872 +13327,1872 @@
     </row>
     <row r="617" s="3" customFormat="1">
       <c r="A617" s="3" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="B617" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C617" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C617" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="618" s="3" customFormat="1">
       <c r="A618" s="3" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="B618" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C618" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="C618" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="619" s="3" customFormat="1">
       <c r="A619" s="3" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="B619" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C619" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="C619" s="3" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="620" s="3" customFormat="1">
       <c r="A620" s="3" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B620" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C620" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="C620" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="621" s="3" customFormat="1">
       <c r="A621" s="3" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="622" s="3" customFormat="1">
       <c r="A622" s="3" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="B622" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C622" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="C622" s="3" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="623" s="3" customFormat="1">
       <c r="A623" s="3" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="B623" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C623" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="C623" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="624" s="3" customFormat="1">
       <c r="A624" s="3" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B624" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C624" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="C624" s="3" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="625" s="3" customFormat="1">
       <c r="A625" s="3" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="B625" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C625" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="C625" s="3" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="626" s="3" customFormat="1">
       <c r="A626" s="3" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="B626" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C626" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="C626" s="3" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="627" s="3" customFormat="1">
       <c r="A627" s="3" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="B627" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C627" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="C627" s="3" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="628" s="3" customFormat="1">
       <c r="A628" s="3" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="B628" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C628" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="C628" s="3" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="629" s="3" customFormat="1">
       <c r="A629" s="3" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="B629" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C629" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="C629" s="3" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="630" s="3" customFormat="1">
       <c r="A630" s="3" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="B630" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C630" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="C630" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="631" s="3" customFormat="1">
       <c r="A631" s="3" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="B631" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C631" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="C631" s="3" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="632" s="3" customFormat="1">
       <c r="A632" s="3" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="B632" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C632" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="C632" s="3" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="633" s="3" customFormat="1">
       <c r="A633" s="3" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="B633" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C633" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="C633" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="634" s="3" customFormat="1">
       <c r="A634" s="3" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="B634" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C634" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="C634" s="3" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="635" s="3" customFormat="1">
       <c r="A635" s="3" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B635" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C635" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="C635" s="3" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="636" s="3" customFormat="1">
       <c r="A636" s="3" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B636" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C636" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="C636" s="3" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="637" s="3" customFormat="1">
       <c r="A637" s="3" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="B637" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C637" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="C637" s="3" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="638" s="3" customFormat="1">
       <c r="A638" s="3" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="B638" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C638" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="C638" s="3" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="639" s="3" customFormat="1">
       <c r="A639" s="3" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="B639" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C639" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C639" s="3" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="640" s="3" customFormat="1">
       <c r="A640" s="3" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="B640" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C640" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="C640" s="3" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="641" s="3" customFormat="1">
       <c r="A641" s="3" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B641" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C641" s="3" t="s">
         <v>500</v>
-      </c>
-      <c r="C641" s="3" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="642" s="3" customFormat="1">
       <c r="A642" s="3" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="B642" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C642" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="C642" s="3" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="643" s="3" customFormat="1">
       <c r="A643" s="3" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B643" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C643" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="C643" s="3" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="644" s="3" customFormat="1">
       <c r="A644" s="3" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="B644" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C644" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="C644" s="3" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="645" s="3" customFormat="1">
       <c r="A645" s="3" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B645" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C645" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="C645" s="3" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="646" s="3" customFormat="1">
       <c r="A646" s="3" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="B646" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C646" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="C646" s="3" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="647" s="3" customFormat="1">
       <c r="A647" s="3" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B647" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C647" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="C647" s="3" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="648" s="3" customFormat="1">
       <c r="A648" s="3" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="B648" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C648" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="C648" s="3" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="649" s="3" customFormat="1">
       <c r="A649" s="3" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B649" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C649" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="C649" s="3" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="650" s="3" customFormat="1">
       <c r="A650" s="3" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="B650" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C650" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="C650" s="3" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="651" s="3" customFormat="1">
       <c r="A651" s="3" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="B651" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C651" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="C651" s="3" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="652" s="3" customFormat="1">
       <c r="A652" s="3" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="B652" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C652" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="C652" s="3" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="653" s="3" customFormat="1">
       <c r="A653" s="3" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="B653" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C653" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="C653" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="654" s="3" customFormat="1">
       <c r="A654" s="3" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B654" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C654" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="C654" s="3" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="655" s="3" customFormat="1">
       <c r="A655" s="3" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B655" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C655" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="C655" s="3" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="656" s="3" customFormat="1">
       <c r="A656" s="3" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="B656" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C656" s="3" t="s">
         <v>596</v>
-      </c>
-      <c r="C656" s="3" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="657" s="3" customFormat="1">
       <c r="A657" s="3" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="B657" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C657" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="C657" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="658" s="3" customFormat="1">
       <c r="A658" s="3" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="B658" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C658" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="C658" s="3" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="659" s="3" customFormat="1">
       <c r="A659" s="3" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="B659" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C659" s="3" t="s">
         <v>618</v>
-      </c>
-      <c r="C659" s="3" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="660" s="3" customFormat="1">
       <c r="A660" s="3" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="B660" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C660" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="C660" s="3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="661" s="3" customFormat="1">
       <c r="A661" s="3" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C661" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="662" s="3" customFormat="1">
       <c r="A662" s="3" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C662" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="663" s="3" customFormat="1">
       <c r="A663" s="3" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C663" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="664" s="3" customFormat="1">
       <c r="A664" s="3" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C664" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="665" s="3" customFormat="1">
       <c r="A665" s="3" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C665" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="666" s="3" customFormat="1">
       <c r="A666" s="3" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C666" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="667" s="3" customFormat="1">
       <c r="A667" s="3" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C667" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="668" s="3" customFormat="1">
       <c r="A668" s="3" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C668" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="669" s="3" customFormat="1">
       <c r="A669" s="3" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C669" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="670" s="3" customFormat="1">
       <c r="A670" s="3" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="671" s="3" customFormat="1">
       <c r="A671" s="3" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="672" s="3" customFormat="1">
       <c r="A672" s="3" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C672" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="673" s="3" customFormat="1">
       <c r="A673" s="3" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C673" s="3" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="674" s="3" customFormat="1">
       <c r="A674" s="3" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C674" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="675" s="3" customFormat="1">
       <c r="A675" s="3" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C675" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="676" s="3" customFormat="1">
       <c r="A676" s="3" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C676" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="677" s="3" customFormat="1">
       <c r="A677" s="3" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C677" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="678" s="3" customFormat="1">
       <c r="A678" s="3" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="679" s="3" customFormat="1">
       <c r="A679" s="3" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C679" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="680" s="3" customFormat="1">
       <c r="A680" s="3" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C680" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="681" s="3" customFormat="1">
       <c r="A681" s="3" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C681" s="3" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="682" s="3" customFormat="1">
       <c r="A682" s="3" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C682" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="683" s="3" customFormat="1">
       <c r="A683" s="3" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C683" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="684" s="3" customFormat="1">
       <c r="A684" s="3" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C684" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="685" s="3" customFormat="1">
       <c r="A685" s="3" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C685" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="686" s="3" customFormat="1">
       <c r="A686" s="3" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="687" s="3" customFormat="1">
       <c r="A687" s="3" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C687" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="688" s="3" customFormat="1">
       <c r="A688" s="3" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="689" s="3" customFormat="1">
       <c r="A689" s="3" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C689" s="3" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="690" s="3" customFormat="1">
       <c r="A690" s="3" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="691" s="3" customFormat="1">
       <c r="A691" s="3" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C691" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="692" s="3" customFormat="1">
       <c r="A692" s="3" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C692" s="3" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="693" s="3" customFormat="1">
       <c r="A693" s="3" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C693" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="694" s="3" customFormat="1">
       <c r="A694" s="3" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C694" s="3" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="695" s="3" customFormat="1">
       <c r="A695" s="3" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C695" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="696" s="3" customFormat="1">
       <c r="A696" s="3" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C696" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="697" s="3" customFormat="1">
       <c r="A697" s="3" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C697" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="698" s="3" customFormat="1">
       <c r="A698" s="3" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C698" s="3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="699" s="3" customFormat="1">
       <c r="A699" s="3" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C699" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="700" s="3" customFormat="1">
       <c r="A700" s="3" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="701" s="3" customFormat="1">
       <c r="A701" s="3" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C701" s="3" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="702" s="3" customFormat="1">
       <c r="A702" s="3" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C702" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="703" s="3" customFormat="1">
       <c r="A703" s="3" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C703" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="704" s="3" customFormat="1">
       <c r="A704" s="3" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="705" s="3" customFormat="1">
       <c r="A705" s="3" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C705" s="3" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="706" s="3" customFormat="1">
       <c r="A706" s="3" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C706" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="707" s="3" customFormat="1">
       <c r="A707" s="3" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C707" s="3" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="708" s="3" customFormat="1">
       <c r="A708" s="3" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C708" s="3" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="709" s="3" customFormat="1">
       <c r="A709" s="3" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="710" s="3" customFormat="1">
       <c r="A710" s="3" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="711" s="3" customFormat="1">
       <c r="A711" s="3" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="712" s="3" customFormat="1">
       <c r="A712" s="3" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="713" s="3" customFormat="1">
       <c r="A713" s="3" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C713" s="3" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="714" s="3" customFormat="1">
       <c r="A714" s="3" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C714" s="3" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="715" s="3" customFormat="1">
       <c r="A715" s="3" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C715" s="3" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="716" s="3" customFormat="1">
       <c r="A716" s="3" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C716" s="3" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="717" s="3" customFormat="1">
       <c r="A717" s="3" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C717" s="3" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="718" s="3" customFormat="1">
       <c r="A718" s="3" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C718" s="3" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="719" s="3" customFormat="1">
       <c r="A719" s="3" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C719" s="3" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="720" s="3" customFormat="1">
       <c r="A720" s="3" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="721" s="3" customFormat="1">
       <c r="A721" s="3" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C721" s="3" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="722" s="3" customFormat="1">
       <c r="A722" s="3" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C722" s="3" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="723" s="3" customFormat="1">
       <c r="A723" s="3" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C723" s="3" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="724" s="3" customFormat="1">
       <c r="A724" s="3" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C724" s="3" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="725" s="3" customFormat="1">
       <c r="A725" s="3" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="C725" s="3" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="726" s="3" customFormat="1">
       <c r="A726" s="3" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C726" s="3" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="727" s="3" customFormat="1">
       <c r="A727" s="3" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C727" s="3" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="728" s="3" customFormat="1">
       <c r="A728" s="3" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="729" s="3" customFormat="1">
       <c r="A729" s="3" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="730" s="3" customFormat="1">
       <c r="A730" s="3" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C730" s="3" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="731" s="3" customFormat="1">
       <c r="A731" s="3" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C731" s="3" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="732" s="3" customFormat="1">
       <c r="A732" s="3" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C732" s="3" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="733" s="3" customFormat="1">
       <c r="A733" s="3" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C733" s="3" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="734" s="3" customFormat="1">
       <c r="A734" s="3" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C734" s="3" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="735" s="3" customFormat="1">
       <c r="A735" s="3" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C735" s="3" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="736" s="3" customFormat="1">
       <c r="A736" s="3" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="C736" s="3" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="737" s="3" customFormat="1">
       <c r="A737" s="3" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C737" s="3" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="738" s="3" customFormat="1">
       <c r="A738" s="3" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C738" s="3" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="739" s="3" customFormat="1">
       <c r="A739" s="3" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C739" s="3" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="740" s="3" customFormat="1">
       <c r="A740" s="3" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="741" s="3" customFormat="1">
       <c r="A741" s="3" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C741" s="3" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="742" s="3" customFormat="1">
       <c r="A742" s="3" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C742" s="3" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="743" s="3" customFormat="1">
       <c r="A743" s="3" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C743" s="3" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="744" s="3" customFormat="1">
       <c r="A744" s="3" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C744" s="3" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="745" s="3" customFormat="1">
       <c r="A745" s="3" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C745" s="3" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="746" s="3" customFormat="1">
       <c r="A746" s="3" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C746" s="3" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="747" s="3" customFormat="1">
       <c r="A747" s="3" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="748" s="3" customFormat="1">
       <c r="A748" s="3" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C748" s="3" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="749" s="3" customFormat="1">
       <c r="A749" s="3" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="C749" s="3" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="750" s="3" customFormat="1">
       <c r="A750" s="3" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C750" s="3" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="751" s="3" customFormat="1">
       <c r="A751" s="3" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C751" s="3" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="753" s="3" customFormat="1">
       <c r="A753" s="3" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C753" s="3" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C754" s="2" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="755" s="3" customFormat="1">
       <c r="A755" s="3" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C755" s="3" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C756" s="2" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="757" s="3" customFormat="1">
       <c r="A757" s="3" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C757" s="3" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="759" s="3" customFormat="1">
       <c r="A759" s="3" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C760" s="2" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="761" s="3" customFormat="1">
       <c r="A761" s="3" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C761" s="3" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="763" s="3" customFormat="1">
       <c r="A763" s="3" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C763" s="3" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C764" s="2" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="765" s="3" customFormat="1">
       <c r="A765" s="3" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C765" s="3" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="767" s="3" customFormat="1">
       <c r="A767" s="3" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C767" s="3" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C768" s="2" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="769" s="3" customFormat="1">
       <c r="A769" s="3" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C769" s="3" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="771" s="3" customFormat="1">
       <c r="A771" s="3" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="C771" s="3" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="772" s="3" customFormat="1">
       <c r="A772" s="3" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C772" s="3" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="773" s="3" customFormat="1">
       <c r="A773" s="3" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C773" s="3" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="774" s="3" customFormat="1">
       <c r="A774" s="3" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="775" s="3" customFormat="1">
       <c r="A775" s="3" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C775" s="3" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="776" s="3" customFormat="1">
       <c r="A776" s="3" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C776" s="3" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="777" s="3" customFormat="1">
       <c r="A777" s="3" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C777" s="3" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="778" s="3" customFormat="1">
       <c r="A778" s="3" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="779" s="3" customFormat="1">
       <c r="A779" s="3" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="C779" s="3" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="780" s="3" customFormat="1">
       <c r="A780" s="3" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="781" s="3" customFormat="1">
       <c r="A781" s="3" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C781" s="3" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="782" s="3" customFormat="1">
       <c r="A782" s="3" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C782" s="3" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="783" s="3" customFormat="1">
       <c r="A783" s="3" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C783" s="3" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="784" s="3" customFormat="1">
       <c r="A784" s="3" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="785" s="3" customFormat="1">
       <c r="A785" s="3" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="C785" s="3" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="786" s="3" customFormat="1">
       <c r="A786" s="3" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/DarkAge/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/DarkAge/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="1445">
   <si>
     <t>chassisdef_adder_ADR-I.Description.Details</t>
   </si>
@@ -1399,6 +1399,9 @@
     <t>chassisdef_hecatoncheires_HEC-6C.YangsThoughts</t>
   </si>
   <si>
+    <t xml:space="preserve">A 3050's era design, the Hecatoncheires is the FWL's attempt to produce a dedicated heavy scout suitable for the modern battlefield. Based on a previously rejected redesign of the venerable Cyclops, the Hecatoncheires downsizes the classic cyclops to 65 tons in weight. A Beagle Active probe, paired with a C3 unit make up the mechs specialist electronics.  4 Medium Lasers and a pair of SRM-6's with Artemis IV provide a nasty punch at close range, while a Gauss Rifle covers longer ranges.</t>
+  </si>
+  <si>
     <t>A 3050's era design, the Hecatoncheires is the FWL's attempt to produce a dedicated heavy scout suitable for the modern battlefield. Based on a previously rejected redesign of the venerable Cyclops, the Hecatoncheires downsizes the classic cyclops to 65 tons in weight. A Beagle Active probe, paired with a C3 unit make up the mechs specialist electronics. 4 Medium Lasers and a pair of SRM-6's with Artemis IV provide a nasty punch at close range, while a Gauss Rifle covers longer ranges.</t>
   </si>
   <si>
@@ -2617,6 +2620,9 @@
     <t>chassisdef_marauder_ii_MAD-6S.YangsThoughts</t>
   </si>
   <si>
+    <t xml:space="preserve">Appearing in 3012, the Marauder II is a redesign of the classic Marauder, turning the 75 ton Heavy Mech into a 100 ton Assault. Originally a Wolfs Dragoons exclusive Mech, it wasn’t until after the 4th War of Succession in 3030 that the Mech would spread beyond the Dragoons. Powered by a 300 rated Light Engine, the Marauder II MAD-6S is armed with a Gauss Rifle, paired ER PPC’s and Medium Pulse Lasers. AMS and an ER Small Laser round out the design.  &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.18.&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
     <t>Appearing in 3012, the Marauder II is a redesign of the classic Marauder, turning the 75 ton Heavy Mech into a 100 ton Assault. Originally a Wolfs Dragoons exclusive Mech, it wasn’t until after the 4th War of Succession in 3030 that the Mech would spread beyond the Dragoons. Powered by a 300 rated Light Engine, the Marauder II MAD-6S is armed with a Gauss Rifle, paired ER PPC’s and Medium Pulse Lasers. AMS and an ER Small Laser round out the design. &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.18.&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3410,6 +3416,9 @@
     <t>chassisdef_shadow_hawk_iic_SHD-IIC-9.YangsThoughts</t>
   </si>
   <si>
+    <t xml:space="preserve">Boss, these Shadow Hawk IICs are a sleek redesign of the classic Shadow Hawk.  They are lighter and faster than the original but still manage to pack a similar punch.</t>
+  </si>
+  <si>
     <t>Boss, these Shadow Hawk IICs are a sleek redesign of the classic Shadow Hawk. They are lighter and faster than the original but still manage to pack a similar punch.</t>
   </si>
   <si>
@@ -3761,6 +3770,9 @@
   </si>
   <si>
     <t>chassisdef_summoner_SMN-J.YangsThoughts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey Boss, the clans call these things the Summoner but I've always called em' the Thor.  These OmniMechs are a tad light on available pod space for their weight class and those early structural mounts are not compatable with anything else. But with that huge engine and lots of jumpjet hardpoints you will be hard pressed to find many 'Mechs its size that are faster.</t>
   </si>
   <si>
     <t>Hey Boss, the clans call these things the Summoner but I've always called em' the Thor. These OmniMechs are a tad light on available pod space for their weight class and those early structural mounts are not compatable with anything else. But with that huge engine and lots of jumpjet hardpoints you will be hard pressed to find many 'Mechs its size that are faster.</t>
@@ -6078,18 +6090,18 @@
   </si>
   <si>
     <t xml:space="preserve">Slower than the Medium Tank, but possessing heavier armor and fire power, the Heavy Tank is a fearsome combatant. Carrying an array of ranged weapons, the Heavy Tank is designed to support allied units from range.
-  &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;Armor:&lt;/b&gt; Heavy Ferro
- &lt;b&gt;Structure:&lt;/b&gt; Structure
- &lt;b&gt;Values A S &lt;/b&gt;
- &lt;b&gt;Front&lt;/b&gt; 350 35
- &lt;b&gt;Left&lt;/b&gt; 284 35
- &lt;b&gt;Right&lt;/b&gt; 284 35
- &lt;b&gt;Rear&lt;/b&gt; 236 35
- &lt;b&gt;Turret&lt;/b&gt; 271 35
- &lt;b&gt;Total&lt;/b&gt; 1425 175
+ &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Armor:&lt;/b&gt; Heavy Ferro
+&lt;b&gt;Structure:&lt;/b&gt; Structure
+&lt;b&gt;Values       A        S  &lt;/b&gt;
+&lt;b&gt;Front&lt;/b&gt;       350     35
+&lt;b&gt;Left&lt;/b&gt;         284     35
+&lt;b&gt;Right&lt;/b&gt;       284     35
+&lt;b&gt;Rear&lt;/b&gt;        236     35
+&lt;b&gt;Turret&lt;/b&gt;      271     35
+&lt;b&gt;Total&lt;/b&gt;      1425    175
 ---
 The Winston Combat Vehicle was a Republic of the Sphere frontline combat vehicle that began production in 3085. A Dark Age variant developed in 3114, this model is powered by an XXL Fusion Engine. It is armed with two AMS, two Clan-built LRM-15s, and twin TSEMP Cannons. The Targeting Computer remains as well.
  &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
@@ -6134,18 +6146,18 @@
   </si>
   <si>
     <t xml:space="preserve">Slower than the Medium Tank, but possessing heavier armor and fire power, the Heavy Tank is a fearsome combatant. Carrying an array of ranged weapons, the Heavy Tank is designed to support allied units from range.
-  &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;Armor:&lt;/b&gt; Heavy Ferro
- &lt;b&gt;Structure:&lt;/b&gt; Structure
- &lt;b&gt;Values A S &lt;/b&gt;
- &lt;b&gt;Front&lt;/b&gt; 350 35
- &lt;b&gt;Left&lt;/b&gt; 284 35
- &lt;b&gt;Right&lt;/b&gt; 284 35
- &lt;b&gt;Rear&lt;/b&gt; 236 35
- &lt;b&gt;Turret&lt;/b&gt; 271 35
- &lt;b&gt;Total&lt;/b&gt; 1425 175
+ &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Armor:&lt;/b&gt; Heavy Ferro
+&lt;b&gt;Structure:&lt;/b&gt; Structure
+&lt;b&gt;Values       A        S  &lt;/b&gt;
+&lt;b&gt;Front&lt;/b&gt;       350     35
+&lt;b&gt;Left&lt;/b&gt;         284     35
+&lt;b&gt;Right&lt;/b&gt;       284     35
+&lt;b&gt;Rear&lt;/b&gt;        236     35
+&lt;b&gt;Turret&lt;/b&gt;      271     35
+&lt;b&gt;Total&lt;/b&gt;      1425    175
 ---
 The Winston Combat Vehicle was a Republic of the Sphere frontline combat vehicle that began production in 3085. A late Dark Age variant, introduced in 3133, this variant is powered by an XXL Fusion Engine and is armed with a pair of Large Re-Engineered Lasers and a pair of Clan-spec LRM-15s sharing three tons of ammo. Front-mounted AMS adds to the tank's defenses.
  &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
@@ -6545,8 +6557,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1">
@@ -8320,31 +8331,31 @@
         <v>339</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="s">
+    <row r="162" s="3" customFormat="1">
+      <c r="A162" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>341</v>
+      <c r="C162" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="163" s="3" customFormat="1">
       <c r="A163" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>338</v>
@@ -8355,29 +8366,29 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="166" s="3" customFormat="1">
       <c r="A166" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>18</v>
@@ -8388,95 +8399,95 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="169" s="3" customFormat="1">
       <c r="A169" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="172" s="3" customFormat="1">
       <c r="A172" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="174" s="3" customFormat="1">
       <c r="A174" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="175" s="3" customFormat="1">
       <c r="A175" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>152</v>
@@ -8487,29 +8498,29 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="178" s="3" customFormat="1">
       <c r="A178" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>152</v>
@@ -8520,29 +8531,29 @@
     </row>
     <row r="180" s="3" customFormat="1">
       <c r="A180" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="181" s="3" customFormat="1">
       <c r="A181" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>152</v>
@@ -8553,29 +8564,29 @@
     </row>
     <row r="183" s="3" customFormat="1">
       <c r="A183" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="184" s="3" customFormat="1">
       <c r="A184" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>4</v>
@@ -8586,29 +8597,29 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="187" s="3" customFormat="1">
       <c r="A187" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>185</v>
@@ -8619,392 +8630,392 @@
     </row>
     <row r="189" s="3" customFormat="1">
       <c r="A189" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="190" s="3" customFormat="1">
       <c r="A190" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="193" s="3" customFormat="1">
       <c r="A193" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="196" s="3" customFormat="1">
       <c r="A196" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="199" s="3" customFormat="1">
       <c r="A199" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="202" s="3" customFormat="1">
       <c r="A202" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="205" s="3" customFormat="1">
       <c r="A205" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="208" s="3" customFormat="1">
       <c r="A208" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="211" s="3" customFormat="1">
       <c r="A211" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="214" s="3" customFormat="1">
       <c r="A214" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="217" s="3" customFormat="1">
       <c r="A217" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="220" s="3" customFormat="1">
       <c r="A220" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="223" s="3" customFormat="1">
       <c r="A223" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>199</v>
@@ -9015,29 +9026,29 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="226" s="3" customFormat="1">
       <c r="A226" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>199</v>
@@ -9048,29 +9059,29 @@
     </row>
     <row r="228" s="3" customFormat="1">
       <c r="A228" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="229" s="3" customFormat="1">
       <c r="A229" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>4</v>
@@ -9081,29 +9092,29 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="232" s="3" customFormat="1">
       <c r="A232" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>185</v>
@@ -9114,29 +9125,29 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="235" s="3" customFormat="1">
       <c r="A235" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>4</v>
@@ -9147,29 +9158,29 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="238" s="3" customFormat="1">
       <c r="A238" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>4</v>
@@ -9180,29 +9191,29 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="241" s="3" customFormat="1">
       <c r="A241" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>185</v>
@@ -9213,29 +9224,29 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="244" s="3" customFormat="1">
       <c r="A244" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>242</v>
@@ -9246,194 +9257,194 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="247" s="3" customFormat="1">
       <c r="A247" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="250" s="3" customFormat="1">
       <c r="A250" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="253" s="3" customFormat="1">
       <c r="A253" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="256" s="3" customFormat="1">
       <c r="A256" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="259" s="3" customFormat="1">
       <c r="A259" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="262" s="3" customFormat="1">
       <c r="A262" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>185</v>
@@ -9444,29 +9455,29 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="265" s="3" customFormat="1">
       <c r="A265" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>152</v>
@@ -9477,106 +9488,106 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="268" s="3" customFormat="1">
       <c r="A268" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="270" s="3" customFormat="1">
       <c r="A270" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="272" s="3" customFormat="1">
       <c r="A272" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="275" s="3" customFormat="1">
       <c r="A275" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>108</v>
@@ -9587,29 +9598,29 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="278" s="3" customFormat="1">
       <c r="A278" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>18</v>
@@ -9620,62 +9631,62 @@
     </row>
     <row r="280" s="3" customFormat="1">
       <c r="A280" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="281" s="3" customFormat="1">
       <c r="A281" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="283" s="3" customFormat="1">
       <c r="A283" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="284" s="3" customFormat="1">
       <c r="A284" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>152</v>
@@ -9686,29 +9697,29 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="287" s="3" customFormat="1">
       <c r="A287" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>18</v>
@@ -9719,29 +9730,29 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="290" s="3" customFormat="1">
       <c r="A290" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>199</v>
@@ -9750,31 +9761,31 @@
         <v>200</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B292" s="2" t="s">
+    <row r="292" s="3" customFormat="1">
+      <c r="A292" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C292" s="2" t="s">
-        <v>627</v>
+      <c r="B292" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="293" s="3" customFormat="1">
       <c r="A293" s="3" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>18</v>
@@ -9785,29 +9796,29 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="296" s="3" customFormat="1">
       <c r="A296" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>18</v>
@@ -9818,29 +9829,29 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="299" s="3" customFormat="1">
       <c r="A299" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>258</v>
@@ -9851,62 +9862,62 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="302" s="3" customFormat="1">
       <c r="A302" s="3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="305" s="3" customFormat="1">
       <c r="A305" s="3" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>4</v>
@@ -9917,29 +9928,29 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="308" s="3" customFormat="1">
       <c r="A308" s="3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>18</v>
@@ -9950,29 +9961,29 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="311" s="3" customFormat="1">
       <c r="A311" s="3" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>185</v>
@@ -9983,29 +9994,29 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="314" s="3" customFormat="1">
       <c r="A314" s="3" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>185</v>
@@ -10016,29 +10027,29 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="317" s="3" customFormat="1">
       <c r="A317" s="3" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>4</v>
@@ -10049,29 +10060,29 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="320" s="3" customFormat="1">
       <c r="A320" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>242</v>
@@ -10082,29 +10093,29 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="323" s="3" customFormat="1">
       <c r="A323" s="3" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>185</v>
@@ -10115,29 +10126,29 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="326" s="3" customFormat="1">
       <c r="A326" s="3" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>18</v>
@@ -10148,95 +10159,95 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="329" s="3" customFormat="1">
       <c r="A329" s="3" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="332" s="3" customFormat="1">
       <c r="A332" s="3" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="335" s="3" customFormat="1">
       <c r="A335" s="3" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>185</v>
@@ -10247,29 +10258,29 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="338" s="3" customFormat="1">
       <c r="A338" s="3" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>323</v>
@@ -10280,95 +10291,95 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="341" s="3" customFormat="1">
       <c r="A341" s="3" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="344" s="3" customFormat="1">
       <c r="A344" s="3" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="347" s="3" customFormat="1">
       <c r="A347" s="3" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>37</v>
@@ -10379,128 +10390,128 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="350" s="3" customFormat="1">
       <c r="A350" s="3" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="353" s="3" customFormat="1">
       <c r="A353" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="355" s="3" customFormat="1">
       <c r="A355" s="3" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="356" s="3" customFormat="1">
       <c r="A356" s="3" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="359" s="3" customFormat="1">
       <c r="A359" s="3" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>242</v>
@@ -10511,161 +10522,161 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="362" s="3" customFormat="1">
       <c r="A362" s="3" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="365" s="3" customFormat="1">
       <c r="A365" s="3" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="368" s="3" customFormat="1">
       <c r="A368" s="3" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="371" s="3" customFormat="1">
       <c r="A371" s="3" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="374" s="3" customFormat="1">
       <c r="A374" s="3" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>18</v>
@@ -10676,29 +10687,29 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="377" s="3" customFormat="1">
       <c r="A377" s="3" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>4</v>
@@ -10709,29 +10720,29 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="380" s="3" customFormat="1">
       <c r="A380" s="3" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>185</v>
@@ -10742,29 +10753,29 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="383" s="3" customFormat="1">
       <c r="A383" s="3" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>152</v>
@@ -10773,31 +10784,31 @@
         <v>153</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="C385" s="2" t="s">
-        <v>816</v>
+    <row r="385" s="3" customFormat="1">
+      <c r="A385" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="386" s="3" customFormat="1">
       <c r="A386" s="3" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>108</v>
@@ -10808,62 +10819,62 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="389" s="3" customFormat="1">
       <c r="A389" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="392" s="3" customFormat="1">
       <c r="A392" s="3" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>242</v>
@@ -10874,29 +10885,29 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="395" s="3" customFormat="1">
       <c r="A395" s="3" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>108</v>
@@ -10907,29 +10918,29 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="398" s="3" customFormat="1">
       <c r="A398" s="3" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>18</v>
@@ -10940,62 +10951,62 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="401" s="3" customFormat="1">
       <c r="A401" s="3" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="404" s="3" customFormat="1">
       <c r="A404" s="3" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>18</v>
@@ -11006,29 +11017,29 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="407" s="3" customFormat="1">
       <c r="A407" s="3" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>4</v>
@@ -11039,29 +11050,29 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="410" s="3" customFormat="1">
       <c r="A410" s="3" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>18</v>
@@ -11072,29 +11083,29 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="413" s="3" customFormat="1">
       <c r="A413" s="3" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>4</v>
@@ -11105,62 +11116,62 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="416" s="3" customFormat="1">
       <c r="A416" s="3" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="419" s="3" customFormat="1">
       <c r="A419" s="3" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>4</v>
@@ -11171,29 +11182,29 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="422" s="3" customFormat="1">
       <c r="A422" s="3" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>152</v>
@@ -11202,31 +11213,31 @@
         <v>153</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>899</v>
+    <row r="424" s="3" customFormat="1">
+      <c r="A424" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="425" s="3" customFormat="1">
       <c r="A425" s="3" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>242</v>
@@ -11237,29 +11248,29 @@
     </row>
     <row r="427" s="3" customFormat="1">
       <c r="A427" s="3" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
     </row>
     <row r="428" s="3" customFormat="1">
       <c r="A428" s="3" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>108</v>
@@ -11270,293 +11281,293 @@
     </row>
     <row r="430" s="3" customFormat="1">
       <c r="A430" s="3" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
     <row r="431" s="3" customFormat="1">
       <c r="A431" s="3" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
     </row>
     <row r="434" s="3" customFormat="1">
       <c r="A434" s="3" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C435" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
     </row>
     <row r="437" s="3" customFormat="1">
       <c r="A437" s="3" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
     </row>
     <row r="440" s="3" customFormat="1">
       <c r="A440" s="3" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C441" s="2" t="s">
         <v>934</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
     </row>
     <row r="443" s="3" customFormat="1">
       <c r="A443" s="3" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
     </row>
     <row r="446" s="3" customFormat="1">
       <c r="A446" s="3" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
     </row>
     <row r="449" s="3" customFormat="1">
       <c r="A449" s="3" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
     </row>
     <row r="452" s="3" customFormat="1">
       <c r="A452" s="3" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
     </row>
     <row r="454" s="3" customFormat="1">
       <c r="A454" s="3" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="455" s="3" customFormat="1">
       <c r="A455" s="3" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>242</v>
@@ -11567,29 +11578,29 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
     </row>
     <row r="458" s="3" customFormat="1">
       <c r="A458" s="3" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>199</v>
@@ -11600,62 +11611,62 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
     </row>
     <row r="461" s="3" customFormat="1">
       <c r="A461" s="3" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
     </row>
     <row r="464" s="3" customFormat="1">
       <c r="A464" s="3" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>258</v>
@@ -11666,29 +11677,29 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
     </row>
     <row r="467" s="3" customFormat="1">
       <c r="A467" s="3" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>199</v>
@@ -11699,29 +11710,29 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="470" s="3" customFormat="1">
       <c r="A470" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>986</v>
-      </c>
-      <c r="B470" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>199</v>
@@ -11732,29 +11743,29 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="473" s="3" customFormat="1">
       <c r="A473" s="3" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>199</v>
@@ -11765,29 +11776,29 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="476" s="3" customFormat="1">
       <c r="A476" s="3" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>199</v>
@@ -11798,29 +11809,29 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="479" s="3" customFormat="1">
       <c r="A479" s="3" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>242</v>
@@ -11831,29 +11842,29 @@
     </row>
     <row r="481" s="3" customFormat="1">
       <c r="A481" s="3" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="482" s="3" customFormat="1">
       <c r="A482" s="3" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>242</v>
@@ -11864,95 +11875,95 @@
     </row>
     <row r="484" s="3" customFormat="1">
       <c r="A484" s="3" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="485" s="3" customFormat="1">
       <c r="A485" s="3" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="488" s="3" customFormat="1">
       <c r="A488" s="3" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="491" s="3" customFormat="1">
       <c r="A491" s="3" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>242</v>
@@ -11963,29 +11974,29 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="494" s="3" customFormat="1">
       <c r="A494" s="3" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>242</v>
@@ -11996,29 +12007,29 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="497" s="3" customFormat="1">
       <c r="A497" s="3" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>242</v>
@@ -12029,29 +12040,29 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="500" s="3" customFormat="1">
       <c r="A500" s="3" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>4</v>
@@ -12062,29 +12073,29 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="503" s="3" customFormat="1">
       <c r="A503" s="3" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>185</v>
@@ -12095,29 +12106,29 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="506" s="3" customFormat="1">
       <c r="A506" s="3" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>18</v>
@@ -12128,29 +12139,29 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="509" s="3" customFormat="1">
       <c r="A509" s="3" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>4</v>
@@ -12161,29 +12172,29 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="512" s="3" customFormat="1">
       <c r="A512" s="3" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>185</v>
@@ -12194,29 +12205,29 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="515" s="3" customFormat="1">
       <c r="A515" s="3" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>185</v>
@@ -12227,62 +12238,62 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="518" s="3" customFormat="1">
       <c r="A518" s="3" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="521" s="3" customFormat="1">
       <c r="A521" s="3" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>242</v>
@@ -12293,29 +12304,29 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="524" s="3" customFormat="1">
       <c r="A524" s="3" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>108</v>
@@ -12326,29 +12337,29 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="527" s="3" customFormat="1">
       <c r="A527" s="3" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>108</v>
@@ -12359,29 +12370,29 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="530" s="3" customFormat="1">
       <c r="A530" s="3" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>18</v>
@@ -12392,62 +12403,62 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="533" s="3" customFormat="1">
       <c r="A533" s="3" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="536" s="3" customFormat="1">
       <c r="A536" s="3" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>108</v>
@@ -12458,62 +12469,62 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="539" s="3" customFormat="1">
       <c r="A539" s="3" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="542" s="3" customFormat="1">
       <c r="A542" s="3" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="B543" s="2" t="s">
         <v>108</v>
@@ -12524,29 +12535,29 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="545" s="3" customFormat="1">
       <c r="A545" s="3" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="B546" s="2" t="s">
         <v>108</v>
@@ -12557,29 +12568,29 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="548" s="3" customFormat="1">
       <c r="A548" s="3" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="B549" s="2" t="s">
         <v>108</v>
@@ -12590,29 +12601,29 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="551" s="3" customFormat="1">
       <c r="A551" s="3" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="B552" s="2" t="s">
         <v>108</v>
@@ -12623,29 +12634,29 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="554" s="3" customFormat="1">
       <c r="A554" s="3" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="B555" s="2" t="s">
         <v>18</v>
@@ -12656,29 +12667,29 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="557" s="3" customFormat="1">
       <c r="A557" s="3" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="B558" s="2" t="s">
         <v>242</v>
@@ -12689,29 +12700,29 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="560" s="3" customFormat="1">
       <c r="A560" s="3" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="B561" s="2" t="s">
         <v>18</v>
@@ -12722,18 +12733,18 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="563" s="3" customFormat="1">
       <c r="A563" s="3" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>1</v>
@@ -12744,7 +12755,7 @@
     </row>
     <row r="564" s="3" customFormat="1">
       <c r="A564" s="3" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="B564" s="3" t="s">
         <v>9</v>
@@ -12755,7 +12766,7 @@
     </row>
     <row r="565" s="3" customFormat="1">
       <c r="A565" s="3" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>15</v>
@@ -12766,7 +12777,7 @@
     </row>
     <row r="566" s="3" customFormat="1">
       <c r="A566" s="3" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>23</v>
@@ -12777,7 +12788,7 @@
     </row>
     <row r="567" s="3" customFormat="1">
       <c r="A567" s="3" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="B567" s="3" t="s">
         <v>23</v>
@@ -12788,10 +12799,10 @@
     </row>
     <row r="568" s="3" customFormat="1">
       <c r="A568" s="3" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="C568" s="3" t="s">
         <v>35</v>
@@ -12799,7 +12810,7 @@
     </row>
     <row r="569" s="3" customFormat="1">
       <c r="A569" s="3" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="B569" s="3" t="s">
         <v>42</v>
@@ -12810,7 +12821,7 @@
     </row>
     <row r="570" s="3" customFormat="1">
       <c r="A570" s="3" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>49</v>
@@ -12821,7 +12832,7 @@
     </row>
     <row r="571" s="3" customFormat="1">
       <c r="A571" s="3" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>57</v>
@@ -12832,7 +12843,7 @@
     </row>
     <row r="572" s="3" customFormat="1">
       <c r="A572" s="3" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>65</v>
@@ -12843,7 +12854,7 @@
     </row>
     <row r="573" s="3" customFormat="1">
       <c r="A573" s="3" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>71</v>
@@ -12854,7 +12865,7 @@
     </row>
     <row r="574" s="3" customFormat="1">
       <c r="A574" s="3" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>79</v>
@@ -12865,7 +12876,7 @@
     </row>
     <row r="575" s="3" customFormat="1">
       <c r="A575" s="3" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>86</v>
@@ -12876,7 +12887,7 @@
     </row>
     <row r="576" s="3" customFormat="1">
       <c r="A576" s="3" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>93</v>
@@ -12887,7 +12898,7 @@
     </row>
     <row r="577" s="3" customFormat="1">
       <c r="A577" s="3" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>99</v>
@@ -12898,7 +12909,7 @@
     </row>
     <row r="578" s="3" customFormat="1">
       <c r="A578" s="3" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>105</v>
@@ -12909,7 +12920,7 @@
     </row>
     <row r="579" s="3" customFormat="1">
       <c r="A579" s="3" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>114</v>
@@ -12920,7 +12931,7 @@
     </row>
     <row r="580" s="3" customFormat="1">
       <c r="A580" s="3" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="B580" s="3" t="s">
         <v>114</v>
@@ -12931,7 +12942,7 @@
     </row>
     <row r="581" s="3" customFormat="1">
       <c r="A581" s="3" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="B581" s="3" t="s">
         <v>114</v>
@@ -12942,7 +12953,7 @@
     </row>
     <row r="582" s="3" customFormat="1">
       <c r="A582" s="3" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="B582" s="3" t="s">
         <v>114</v>
@@ -12953,7 +12964,7 @@
     </row>
     <row r="583" s="3" customFormat="1">
       <c r="A583" s="3" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>114</v>
@@ -12964,7 +12975,7 @@
     </row>
     <row r="584" s="3" customFormat="1">
       <c r="A584" s="3" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>114</v>
@@ -12975,7 +12986,7 @@
     </row>
     <row r="585" s="3" customFormat="1">
       <c r="A585" s="3" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>136</v>
@@ -12986,7 +12997,7 @@
     </row>
     <row r="586" s="3" customFormat="1">
       <c r="A586" s="3" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>142</v>
@@ -12997,7 +13008,7 @@
     </row>
     <row r="587" s="3" customFormat="1">
       <c r="A587" s="3" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>149</v>
@@ -13008,7 +13019,7 @@
     </row>
     <row r="588" s="3" customFormat="1">
       <c r="A588" s="3" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>158</v>
@@ -13019,7 +13030,7 @@
     </row>
     <row r="589" s="3" customFormat="1">
       <c r="A589" s="3" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>164</v>
@@ -13030,7 +13041,7 @@
     </row>
     <row r="590" s="3" customFormat="1">
       <c r="A590" s="3" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>170</v>
@@ -13041,7 +13052,7 @@
     </row>
     <row r="591" s="3" customFormat="1">
       <c r="A591" s="3" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>176</v>
@@ -13052,7 +13063,7 @@
     </row>
     <row r="592" s="3" customFormat="1">
       <c r="A592" s="3" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="B592" s="3" t="s">
         <v>182</v>
@@ -13063,7 +13074,7 @@
     </row>
     <row r="593" s="3" customFormat="1">
       <c r="A593" s="3" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="B593" s="3" t="s">
         <v>190</v>
@@ -13074,7 +13085,7 @@
     </row>
     <row r="594" s="3" customFormat="1">
       <c r="A594" s="3" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="B594" s="3" t="s">
         <v>196</v>
@@ -13085,7 +13096,7 @@
     </row>
     <row r="595" s="3" customFormat="1">
       <c r="A595" s="3" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="B595" s="3" t="s">
         <v>205</v>
@@ -13096,7 +13107,7 @@
     </row>
     <row r="596" s="3" customFormat="1">
       <c r="A596" s="3" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>212</v>
@@ -13107,18 +13118,18 @@
     </row>
     <row r="597" s="3" customFormat="1">
       <c r="A597" s="3" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="598" s="3" customFormat="1">
       <c r="A598" s="3" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>225</v>
@@ -13129,7 +13140,7 @@
     </row>
     <row r="599" s="3" customFormat="1">
       <c r="A599" s="3" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>232</v>
@@ -13140,7 +13151,7 @@
     </row>
     <row r="600" s="3" customFormat="1">
       <c r="A600" s="3" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="B600" s="3" t="s">
         <v>239</v>
@@ -13151,18 +13162,18 @@
     </row>
     <row r="601" s="3" customFormat="1">
       <c r="A601" s="3" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="602" s="3" customFormat="1">
       <c r="A602" s="3" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>255</v>
@@ -13173,7 +13184,7 @@
     </row>
     <row r="603" s="3" customFormat="1">
       <c r="A603" s="3" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>263</v>
@@ -13184,7 +13195,7 @@
     </row>
     <row r="604" s="3" customFormat="1">
       <c r="A604" s="3" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>270</v>
@@ -13195,7 +13206,7 @@
     </row>
     <row r="605" s="3" customFormat="1">
       <c r="A605" s="3" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>276</v>
@@ -13206,7 +13217,7 @@
     </row>
     <row r="606" s="3" customFormat="1">
       <c r="A606" s="3" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>282</v>
@@ -13217,7 +13228,7 @@
     </row>
     <row r="607" s="3" customFormat="1">
       <c r="A607" s="3" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="B607" s="3" t="s">
         <v>288</v>
@@ -13228,7 +13239,7 @@
     </row>
     <row r="608" s="3" customFormat="1">
       <c r="A608" s="3" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="B608" s="3" t="s">
         <v>294</v>
@@ -13239,7 +13250,7 @@
     </row>
     <row r="609" s="3" customFormat="1">
       <c r="A609" s="3" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>301</v>
@@ -13250,7 +13261,7 @@
     </row>
     <row r="610" s="3" customFormat="1">
       <c r="A610" s="3" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>301</v>
@@ -13261,7 +13272,7 @@
     </row>
     <row r="611" s="3" customFormat="1">
       <c r="A611" s="3" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>301</v>
@@ -13272,7 +13283,7 @@
     </row>
     <row r="612" s="3" customFormat="1">
       <c r="A612" s="3" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>301</v>
@@ -13283,7 +13294,7 @@
     </row>
     <row r="613" s="3" customFormat="1">
       <c r="A613" s="3" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="B613" s="3" t="s">
         <v>301</v>
@@ -13294,18 +13305,18 @@
     </row>
     <row r="614" s="3" customFormat="1">
       <c r="A614" s="3" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="615" s="3" customFormat="1">
       <c r="A615" s="3" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>328</v>
@@ -13316,7 +13327,7 @@
     </row>
     <row r="616" s="3" customFormat="1">
       <c r="A616" s="3" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="B616" s="3" t="s">
         <v>335</v>
@@ -13327,1872 +13338,1872 @@
     </row>
     <row r="617" s="3" customFormat="1">
       <c r="A617" s="3" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="618" s="3" customFormat="1">
       <c r="A618" s="3" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="619" s="3" customFormat="1">
       <c r="A619" s="3" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="620" s="3" customFormat="1">
       <c r="A620" s="3" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="621" s="3" customFormat="1">
       <c r="A621" s="3" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="622" s="3" customFormat="1">
       <c r="A622" s="3" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="623" s="3" customFormat="1">
       <c r="A623" s="3" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="624" s="3" customFormat="1">
       <c r="A624" s="3" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="625" s="3" customFormat="1">
       <c r="A625" s="3" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="626" s="3" customFormat="1">
       <c r="A626" s="3" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="627" s="3" customFormat="1">
       <c r="A627" s="3" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="628" s="3" customFormat="1">
       <c r="A628" s="3" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="629" s="3" customFormat="1">
       <c r="A629" s="3" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="630" s="3" customFormat="1">
       <c r="A630" s="3" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="631" s="3" customFormat="1">
       <c r="A631" s="3" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="632" s="3" customFormat="1">
       <c r="A632" s="3" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="633" s="3" customFormat="1">
       <c r="A633" s="3" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="634" s="3" customFormat="1">
       <c r="A634" s="3" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="635" s="3" customFormat="1">
       <c r="A635" s="3" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C635" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="636" s="3" customFormat="1">
       <c r="A636" s="3" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="637" s="3" customFormat="1">
       <c r="A637" s="3" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C637" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="638" s="3" customFormat="1">
       <c r="A638" s="3" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C638" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="639" s="3" customFormat="1">
       <c r="A639" s="3" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C639" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="640" s="3" customFormat="1">
       <c r="A640" s="3" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C640" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="641" s="3" customFormat="1">
       <c r="A641" s="3" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C641" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="642" s="3" customFormat="1">
       <c r="A642" s="3" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C642" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="643" s="3" customFormat="1">
       <c r="A643" s="3" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C643" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="644" s="3" customFormat="1">
       <c r="A644" s="3" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C644" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="645" s="3" customFormat="1">
       <c r="A645" s="3" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C645" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="646" s="3" customFormat="1">
       <c r="A646" s="3" t="s">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C646" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="647" s="3" customFormat="1">
       <c r="A647" s="3" t="s">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C647" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="648" s="3" customFormat="1">
       <c r="A648" s="3" t="s">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C648" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="649" s="3" customFormat="1">
       <c r="A649" s="3" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C649" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="650" s="3" customFormat="1">
       <c r="A650" s="3" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C650" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="651" s="3" customFormat="1">
       <c r="A651" s="3" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C651" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="652" s="3" customFormat="1">
       <c r="A652" s="3" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C652" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="653" s="3" customFormat="1">
       <c r="A653" s="3" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C653" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="654" s="3" customFormat="1">
       <c r="A654" s="3" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C654" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="655" s="3" customFormat="1">
       <c r="A655" s="3" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C655" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="656" s="3" customFormat="1">
       <c r="A656" s="3" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C656" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="657" s="3" customFormat="1">
       <c r="A657" s="3" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C657" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="658" s="3" customFormat="1">
       <c r="A658" s="3" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C658" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="659" s="3" customFormat="1">
       <c r="A659" s="3" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C659" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="660" s="3" customFormat="1">
       <c r="A660" s="3" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C660" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="661" s="3" customFormat="1">
       <c r="A661" s="3" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C661" s="3" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="662" s="3" customFormat="1">
       <c r="A662" s="3" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C662" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="663" s="3" customFormat="1">
       <c r="A663" s="3" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C663" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="664" s="3" customFormat="1">
       <c r="A664" s="3" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C664" s="3" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="665" s="3" customFormat="1">
       <c r="A665" s="3" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C665" s="3" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="666" s="3" customFormat="1">
       <c r="A666" s="3" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C666" s="3" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="667" s="3" customFormat="1">
       <c r="A667" s="3" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C667" s="3" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="668" s="3" customFormat="1">
       <c r="A668" s="3" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C668" s="3" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="669" s="3" customFormat="1">
       <c r="A669" s="3" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C669" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="670" s="3" customFormat="1">
       <c r="A670" s="3" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="671" s="3" customFormat="1">
       <c r="A671" s="3" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="672" s="3" customFormat="1">
       <c r="A672" s="3" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C672" s="3" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="673" s="3" customFormat="1">
       <c r="A673" s="3" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="C673" s="3" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="674" s="3" customFormat="1">
       <c r="A674" s="3" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C674" s="3" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="675" s="3" customFormat="1">
       <c r="A675" s="3" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C675" s="3" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="676" s="3" customFormat="1">
       <c r="A676" s="3" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C676" s="3" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="677" s="3" customFormat="1">
       <c r="A677" s="3" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C677" s="3" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="678" s="3" customFormat="1">
       <c r="A678" s="3" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="679" s="3" customFormat="1">
       <c r="A679" s="3" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C679" s="3" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="680" s="3" customFormat="1">
       <c r="A680" s="3" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C680" s="3" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="681" s="3" customFormat="1">
       <c r="A681" s="3" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="C681" s="3" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="682" s="3" customFormat="1">
       <c r="A682" s="3" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C682" s="3" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="683" s="3" customFormat="1">
       <c r="A683" s="3" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C683" s="3" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="684" s="3" customFormat="1">
       <c r="A684" s="3" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C684" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="685" s="3" customFormat="1">
       <c r="A685" s="3" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C685" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="686" s="3" customFormat="1">
       <c r="A686" s="3" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="687" s="3" customFormat="1">
       <c r="A687" s="3" t="s">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C687" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="688" s="3" customFormat="1">
       <c r="A688" s="3" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="689" s="3" customFormat="1">
       <c r="A689" s="3" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="C689" s="3" t="s">
-        <v>1315</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="690" s="3" customFormat="1">
       <c r="A690" s="3" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>1317</v>
+        <v>1321</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="691" s="3" customFormat="1">
       <c r="A691" s="3" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C691" s="3" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="692" s="3" customFormat="1">
       <c r="A692" s="3" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C692" s="3" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="693" s="3" customFormat="1">
       <c r="A693" s="3" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C693" s="3" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="694" s="3" customFormat="1">
       <c r="A694" s="3" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C694" s="3" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="695" s="3" customFormat="1">
       <c r="A695" s="3" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C695" s="3" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="696" s="3" customFormat="1">
       <c r="A696" s="3" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C696" s="3" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="697" s="3" customFormat="1">
       <c r="A697" s="3" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C697" s="3" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="698" s="3" customFormat="1">
       <c r="A698" s="3" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C698" s="3" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="699" s="3" customFormat="1">
       <c r="A699" s="3" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C699" s="3" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="700" s="3" customFormat="1">
       <c r="A700" s="3" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="701" s="3" customFormat="1">
       <c r="A701" s="3" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C701" s="3" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="702" s="3" customFormat="1">
       <c r="A702" s="3" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C702" s="3" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="703" s="3" customFormat="1">
       <c r="A703" s="3" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C703" s="3" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="704" s="3" customFormat="1">
       <c r="A704" s="3" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="705" s="3" customFormat="1">
       <c r="A705" s="3" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C705" s="3" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
     </row>
     <row r="706" s="3" customFormat="1">
       <c r="A706" s="3" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C706" s="3" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
     </row>
     <row r="707" s="3" customFormat="1">
       <c r="A707" s="3" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C707" s="3" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
     </row>
     <row r="708" s="3" customFormat="1">
       <c r="A708" s="3" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C708" s="3" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
     </row>
     <row r="709" s="3" customFormat="1">
       <c r="A709" s="3" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="710" s="3" customFormat="1">
       <c r="A710" s="3" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="711" s="3" customFormat="1">
       <c r="A711" s="3" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="712" s="3" customFormat="1">
       <c r="A712" s="3" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="713" s="3" customFormat="1">
       <c r="A713" s="3" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="C713" s="3" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="714" s="3" customFormat="1">
       <c r="A714" s="3" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="C714" s="3" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
     </row>
     <row r="715" s="3" customFormat="1">
       <c r="A715" s="3" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="C715" s="3" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
     </row>
     <row r="716" s="3" customFormat="1">
       <c r="A716" s="3" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="C716" s="3" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
     </row>
     <row r="717" s="3" customFormat="1">
       <c r="A717" s="3" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="C717" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
     </row>
     <row r="718" s="3" customFormat="1">
       <c r="A718" s="3" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="C718" s="3" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
     </row>
     <row r="719" s="3" customFormat="1">
       <c r="A719" s="3" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="C719" s="3" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
     </row>
     <row r="720" s="3" customFormat="1">
       <c r="A720" s="3" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
     </row>
     <row r="721" s="3" customFormat="1">
       <c r="A721" s="3" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="C721" s="3" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
     </row>
     <row r="722" s="3" customFormat="1">
       <c r="A722" s="3" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="C722" s="3" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
     </row>
     <row r="723" s="3" customFormat="1">
       <c r="A723" s="3" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="C723" s="3" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="724" s="3" customFormat="1">
       <c r="A724" s="3" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="C724" s="3" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="725" s="3" customFormat="1">
       <c r="A725" s="3" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="C725" s="3" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="726" s="3" customFormat="1">
       <c r="A726" s="3" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="C726" s="3" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="727" s="3" customFormat="1">
       <c r="A727" s="3" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="C727" s="3" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="728" s="3" customFormat="1">
       <c r="A728" s="3" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="729" s="3" customFormat="1">
       <c r="A729" s="3" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="730" s="3" customFormat="1">
       <c r="A730" s="3" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="C730" s="3" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="731" s="3" customFormat="1">
       <c r="A731" s="3" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="C731" s="3" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="732" s="3" customFormat="1">
       <c r="A732" s="3" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="C732" s="3" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="733" s="3" customFormat="1">
       <c r="A733" s="3" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="C733" s="3" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="734" s="3" customFormat="1">
       <c r="A734" s="3" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="C734" s="3" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="735" s="3" customFormat="1">
       <c r="A735" s="3" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="C735" s="3" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="736" s="3" customFormat="1">
       <c r="A736" s="3" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="C736" s="3" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="737" s="3" customFormat="1">
       <c r="A737" s="3" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="C737" s="3" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="738" s="3" customFormat="1">
       <c r="A738" s="3" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="C738" s="3" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="739" s="3" customFormat="1">
       <c r="A739" s="3" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C739" s="3" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="740" s="3" customFormat="1">
       <c r="A740" s="3" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="741" s="3" customFormat="1">
       <c r="A741" s="3" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="C741" s="3" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="742" s="3" customFormat="1">
       <c r="A742" s="3" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="C742" s="3" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="743" s="3" customFormat="1">
       <c r="A743" s="3" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="C743" s="3" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="744" s="3" customFormat="1">
       <c r="A744" s="3" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="C744" s="3" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="745" s="3" customFormat="1">
       <c r="A745" s="3" t="s">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="C745" s="3" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="746" s="3" customFormat="1">
       <c r="A746" s="3" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="C746" s="3" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="747" s="3" customFormat="1">
       <c r="A747" s="3" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="748" s="3" customFormat="1">
       <c r="A748" s="3" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="C748" s="3" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="749" s="3" customFormat="1">
       <c r="A749" s="3" t="s">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="C749" s="3" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="750" s="3" customFormat="1">
       <c r="A750" s="3" t="s">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="C750" s="3" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="751" s="3" customFormat="1">
       <c r="A751" s="3" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="C751" s="3" t="s">
-        <v>1383</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="s">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="753" s="3" customFormat="1">
       <c r="A753" s="3" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>1388</v>
+        <v>1392</v>
       </c>
       <c r="C753" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C754" s="2" t="s">
         <v>1390</v>
-      </c>
-      <c r="B754" s="2" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C754" s="2" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="755" s="3" customFormat="1">
       <c r="A755" s="3" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="C755" s="3" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="C756" s="2" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="757" s="3" customFormat="1">
       <c r="A757" s="3" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="C757" s="3" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="759" s="3" customFormat="1">
       <c r="A759" s="3" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="C760" s="2" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="761" s="3" customFormat="1">
       <c r="A761" s="3" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C761" s="3" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="763" s="3" customFormat="1">
       <c r="A763" s="3" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C763" s="3" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="C764" s="2" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="765" s="3" customFormat="1">
       <c r="A765" s="3" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="C765" s="3" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="767" s="3" customFormat="1">
       <c r="A767" s="3" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="C767" s="3" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="C768" s="2" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="769" s="3" customFormat="1">
       <c r="A769" s="3" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="C769" s="3" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="771" s="3" customFormat="1">
       <c r="A771" s="3" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="C771" s="3" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="772" s="3" customFormat="1">
       <c r="A772" s="3" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="C772" s="3" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="773" s="3" customFormat="1">
       <c r="A773" s="3" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="B773" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C773" s="3" t="s">
         <v>1427</v>
-      </c>
-      <c r="C773" s="3" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="774" s="3" customFormat="1">
       <c r="A774" s="3" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="775" s="3" customFormat="1">
       <c r="A775" s="3" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="C775" s="3" t="s">
-        <v>1383</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="776" s="3" customFormat="1">
       <c r="A776" s="3" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>1388</v>
+        <v>1392</v>
       </c>
       <c r="C776" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="777" s="3" customFormat="1">
       <c r="A777" s="3" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="C777" s="3" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="778" s="3" customFormat="1">
       <c r="A778" s="3" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="779" s="3" customFormat="1">
       <c r="A779" s="3" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="C779" s="3" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="780" s="3" customFormat="1">
       <c r="A780" s="3" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="781" s="3" customFormat="1">
       <c r="A781" s="3" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C781" s="3" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="782" s="3" customFormat="1">
       <c r="A782" s="3" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="C782" s="3" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="783" s="3" customFormat="1">
       <c r="A783" s="3" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="C783" s="3" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="784" s="3" customFormat="1">
       <c r="A784" s="3" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="785" s="3" customFormat="1">
       <c r="A785" s="3" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="C785" s="3" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="786" s="3" customFormat="1">
       <c r="A786" s="3" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="B786" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C786" s="3" t="s">
         <v>1427</v>
-      </c>
-      <c r="C786" s="3" t="s">
-        <v>1423</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/DarkAge/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/DarkAge/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="1534">
   <si>
     <t>chassisdef_adder_ADR-I.Description.Details</t>
   </si>
@@ -5409,6 +5409,9 @@
   </si>
   <si>
     <t>Industrial Mech</t>
+  </si>
+  <si>
+    <t>Промышленный мех</t>
   </si>
   <si>
     <t>chassisdef_crosscut_ED-IIC.YangsThoughts</t>
@@ -6104,15 +6107,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A823" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A796" workbookViewId="0">
       <selection activeCell="C823" sqref="C1:C823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="73" customWidth="1" style="2"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19499,7 +19502,7 @@
         <v>1473</v>
       </c>
       <c r="C788" s="4" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="E788" s="2">
         <v>788</v>
@@ -19507,13 +19510,13 @@
     </row>
     <row r="789">
       <c r="A789" s="2" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C789" s="4" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="E789" s="2">
         <v>789</v>
@@ -19521,13 +19524,13 @@
     </row>
     <row r="790">
       <c r="A790" s="2" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C790" s="4" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="E790" s="2">
         <v>790</v>
@@ -19535,13 +19538,13 @@
     </row>
     <row r="791">
       <c r="A791" s="2" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C791" s="4" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="E791" s="2">
         <v>791</v>
@@ -19549,13 +19552,13 @@
     </row>
     <row r="792">
       <c r="A792" s="2" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="C792" s="4" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="E792" s="2">
         <v>792</v>
@@ -19563,13 +19566,13 @@
     </row>
     <row r="793">
       <c r="A793" s="2" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C793" s="4" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="E793" s="2">
         <v>793</v>
@@ -19577,13 +19580,13 @@
     </row>
     <row r="794">
       <c r="A794" s="2" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C794" s="4" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="E794" s="2">
         <v>794</v>
@@ -19591,13 +19594,13 @@
     </row>
     <row r="795">
       <c r="A795" s="2" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="C795" s="4" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="E795" s="2">
         <v>795</v>
@@ -19605,13 +19608,13 @@
     </row>
     <row r="796">
       <c r="A796" s="2" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="C796" s="4" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="E796" s="2">
         <v>796</v>
@@ -19619,13 +19622,13 @@
     </row>
     <row r="797">
       <c r="A797" s="2" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B797" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C797" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E797" s="2">
         <v>797</v>
@@ -19633,13 +19636,13 @@
     </row>
     <row r="798">
       <c r="A798" s="2" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="C798" s="4" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="E798" s="2">
         <v>798</v>
@@ -19647,7 +19650,7 @@
     </row>
     <row r="799">
       <c r="A799" s="2" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B799" s="2" t="s">
         <v>1470</v>
@@ -19661,13 +19664,13 @@
     </row>
     <row r="800">
       <c r="A800" s="2" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C800" s="4" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="E800" s="2">
         <v>800</v>
@@ -19675,13 +19678,13 @@
     </row>
     <row r="801">
       <c r="A801" s="2" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C801" s="4" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="E801" s="2">
         <v>801</v>
@@ -19689,13 +19692,13 @@
     </row>
     <row r="802">
       <c r="A802" s="2" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="C802" s="4" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="E802" s="2">
         <v>802</v>
@@ -19703,13 +19706,13 @@
     </row>
     <row r="803">
       <c r="A803" s="2" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C803" s="4" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="E803" s="2">
         <v>803</v>
@@ -19717,7 +19720,7 @@
     </row>
     <row r="804">
       <c r="A804" s="2" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B804" s="2" t="s">
         <v>1413</v>
@@ -19731,13 +19734,13 @@
     </row>
     <row r="805">
       <c r="A805" s="2" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C805" s="4" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="E805" s="2">
         <v>805</v>
@@ -19745,7 +19748,7 @@
     </row>
     <row r="806">
       <c r="A806" s="2" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B806" s="2" t="s">
         <v>1413</v>
@@ -19759,13 +19762,13 @@
     </row>
     <row r="807">
       <c r="A807" s="2" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C807" s="4" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="E807" s="2">
         <v>807</v>
@@ -19773,7 +19776,7 @@
     </row>
     <row r="808">
       <c r="A808" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B808" s="2" t="s">
         <v>1413</v>
@@ -19787,13 +19790,13 @@
     </row>
     <row r="809">
       <c r="A809" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C809" s="4" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="E809" s="2">
         <v>809</v>
@@ -19801,13 +19804,13 @@
     </row>
     <row r="810">
       <c r="A810" s="2" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C810" s="4" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="E810" s="2">
         <v>810</v>
@@ -19815,13 +19818,13 @@
     </row>
     <row r="811">
       <c r="A811" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C811" s="4" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="E811" s="2">
         <v>811</v>
@@ -19829,7 +19832,7 @@
     </row>
     <row r="812">
       <c r="A812" s="2" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B812" s="2" t="s">
         <v>1413</v>
@@ -19843,13 +19846,13 @@
     </row>
     <row r="813">
       <c r="A813" s="2" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C813" s="4" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="E813" s="2">
         <v>813</v>
@@ -19857,13 +19860,13 @@
     </row>
     <row r="814">
       <c r="A814" s="2" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C814" s="4" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="E814" s="2">
         <v>814</v>
@@ -19871,13 +19874,13 @@
     </row>
     <row r="815">
       <c r="A815" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C815" s="4" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="E815" s="2">
         <v>815</v>
@@ -19885,7 +19888,7 @@
     </row>
     <row r="816">
       <c r="A816" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B816" s="2" t="s">
         <v>1413</v>
@@ -19899,13 +19902,13 @@
     </row>
     <row r="817">
       <c r="A817" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C817" s="4" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="E817" s="2">
         <v>817</v>
@@ -19913,13 +19916,13 @@
     </row>
     <row r="818">
       <c r="A818" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C818" s="4" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="E818" s="2">
         <v>818</v>
@@ -19927,13 +19930,13 @@
     </row>
     <row r="819">
       <c r="A819" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C819" s="4" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="E819" s="2">
         <v>819</v>
@@ -19941,13 +19944,13 @@
     </row>
     <row r="820">
       <c r="A820" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C820" s="4" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="E820" s="2">
         <v>820</v>
@@ -19955,13 +19958,13 @@
     </row>
     <row r="821">
       <c r="A821" s="2" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C821" s="4" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="E821" s="2">
         <v>821</v>
@@ -19969,13 +19972,13 @@
     </row>
     <row r="822">
       <c r="A822" s="2" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C822" s="4" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="E822" s="2">
         <v>822</v>
@@ -19983,13 +19986,13 @@
     </row>
     <row r="823">
       <c r="A823" s="2" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C823" s="4" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="E823" s="2">
         <v>823</v>

--- a/CustomLocalization/Localization/RogueTech/RU/DarkAge/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/DarkAge/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="1534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="1535">
   <si>
     <t>chassisdef_adder_ADR-I.Description.Details</t>
   </si>
@@ -1298,7 +1298,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Hellhound is a Clan Jade Falcon medium 'Mech that can outrun practically anything it cannot outgun. Created after their war with Clan Wolf and built on Inner Sphere planets, it has found its way into many armies.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Nimble&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Шустрый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1357,7 +1357,7 @@
   </si>
   <si>
     <t xml:space="preserve">A Nova Cat design, the 50 ton Huntsman was designed for Operation Revival and the invasion of the Inner Sphere; first entering production in 3049. An OmniMech, the Huntsman is built around a 250 rated XL Engine with an Endo Steel Skeleton and Ferro Fibrous armour giving the OmniMech, 21.5 tons of pod space. 5 Jump Jets are fixed to the chassis, giving the Huntsman additional flexibility. The Huntsman F is armed with an Improved Heavy Large Laser and a pair of Artemis V enhanced LRM-15’s. A pair of ER Medium Lasers provide additional firepower at close range. A Targeting Computer enhances the weapons accuaracy. \\n\\n
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1370,7 +1370,7 @@
     <t>A Nova Cat design, the 50 ton Huntsman was designed for Operation Revival and the invasion of the Inner Sphere; first entering production in 3049. An OmniMech, the Huntsman is built around a 250 rated XL Engine with an Endo Steel Skeleton and Ferro Fibrous armour giving the OmniMech, 21.5 tons of pod space. 5 Jump Jets are fixed to the chassis, giving the Huntsman additional flexibility. The Huntsman F is armed with an Improved Heavy Large Laser and a pair of Artemis V enhanced LRM-15’s. A pair of ER Medium Lasers provide additional firepower at close range. A Targeting Computer enhances the weapons accuaracy. \\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Stable&lt;/color&gt;&lt;/b&gt;\\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>A Nova Cat design, the 50 ton Huntsman was designed for Operation Revival and the invasion of the Inner Sphere; first entering production in 3049. An OmniMech, the Huntsman is built around a 250 rated XL Engine with an Endo Steel Skeleton and Ferro Fibrous armour giving the OmniMech, 21.5 tons of pod space. 5 Jump Jets are fixed to the chassis, giving the Huntsman additional flexibility. The Huntsman F is armed with an Improved Heavy Large Laser and a pair of Artemis V enhanced LRM-15’s. A pair of ER Medium Lasers provide additional firepower at close range. A Targeting Computer enhances the weapons accuaracy. \\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;\\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
+    <t>A Nova Cat design, the 50 ton Huntsman was designed for Operation Revival and the invasion of the Inner Sphere; first entering production in 3049. An OmniMech, the Huntsman is built around a 250 rated XL Engine with an Endo Steel Skeleton and Ferro Fibrous armour giving the OmniMech, 21.5 tons of pod space. 5 Jump Jets are fixed to the chassis, giving the Huntsman additional flexibility. The Huntsman F is armed with an Improved Heavy Large Laser and a pair of Artemis V enhanced LRM-15’s. A pair of ER Medium Lasers provide additional firepower at close range. A Targeting Computer enhances the weapons accuaracy. \\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;\\n\\n&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_huntsman_HMN-G.Description.Details</t>
@@ -1382,7 +1382,7 @@
   </si>
   <si>
     <t xml:space="preserve">A Nova Cat design, the 50 ton Huntsman was designed for Operation Revival and the invasion of the Inner Sphere; first entering production in 3049. An OmniMech, the Huntsman is built around a 250 rated XL Engine with an Endo Steel Skeleton and Ferro Fibrous armour giving the OmniMech, 21.5 tons of pod space. 5 Jump Jets are fixed to the chassis, giving the Huntsman additional flexibility. The Huntsman E is armed with a trio of ER Medium Pulse Lasers. A Small Pulse Laser and a pair of Streak SRM-6’s provide additional firepower at close range. A Retractable Blade is a nasty surprise should enemies close distance with the Huntsman.\n\n
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
   </si>
   <si>
     <t xml:space="preserve">A Nova Cat design, the 50 ton Huntsman was designed for Operation Revival and the invasion of the Inner Sphere; first entering production in 3049. An OmniMech, the Huntsman is built around a 250 rated XL Engine with an Endo Steel Skeleton and Ferro Fibrous armour giving the OmniMech, 21.5 tons of pod space. 5 Jump Jets are fixed to the chassis, giving the Huntsman additional flexibility. The Huntsman T is armed with a UAC/2 and a pair of Streak LRM-5’s. 4 Improved Heavy Medium Lasers, a ER Small Laser, a Micro Pulse Laser, a Streak SRM-6 and a Flamer provide additional firepower at close range. Laser AMS improves the Huntsmans defensive capabilities while a Targeting Computer enhances the accuracy of Mechs weapons. \n\n
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1461,7 +1461,7 @@
   </si>
   <si>
     <t xml:space="preserve">This variant uses an XXL Engine to allow the chassis to carry an ER PPC and Talons. It's frequently seen with Hell's Horses Mongol warriors.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Laser&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - лазеры&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1489,7 +1489,7 @@
   </si>
   <si>
     <t xml:space="preserve">A second-line battlemech designed for duelling, the Incubus is a frequent sight in Clan garrison units. A 30 ton light Mech, the Incubus is built around a 270 rated XL Engine with an Endo Steel Chassis and Ferro Fibrous armor. The Incubus 7 is armed with a UAC/2, a pair of ER Medium Lasers and 4 Machine Guns.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Laser&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - лазеры&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1511,7 +1511,7 @@
   </si>
   <si>
     <t xml:space="preserve">A second-line battlemech designed for duelling, the Incubus is a frequent sight in Clan garrison units. A 30 ton light Mech, the Incubus is built around a 270 rated XL Engine with an Endo Steel Chassis and Ferro Fibrous armor. The Incubus 8 is armed with an LRM-20, a pair of ER Medium Lasers and 4 Machine Guns.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Laser&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - лазеры&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1533,7 +1533,7 @@
   </si>
   <si>
     <t xml:space="preserve">A second-line battlemech designed for duelling, the Incubus is a frequent sight in Clan garrison units. A 30 ton light Mech, the Incubus is built around a 270 rated XL Engine with an Endo Steel Chassis and Ferro Fibrous armor. The Incubus 9 is armed with an ER Large Pulse Laser, a pair of ER Medium Pulse Laser and 4 AP Gauss Rifles.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Laser&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - лазеры&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2031,7 +2031,7 @@
   </si>
   <si>
     <t xml:space="preserve">Designed as a replacement to the Timber Wolf, the 65 ton Linebacker entered production in 3052. Built around a 390 rated XL Engine, the Linebacker’s faster speed enables it to keep up with lighter star mates in running battles, something the Timber Wolf struggled to do. A combination of Ferro Fibrous armor and Endo Steel give the OmniMech 17.5 tons of free pod space. The Linebacker LBK-I is armed with an ER Large Laser and 4 Machine Gun Arrays.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2056,7 +2056,7 @@
   </si>
   <si>
     <t xml:space="preserve">Designed as a replacement to the Timber Wolf, the 65 ton Linebacker entered production in 3052. Built around a 390 rated XL Engine, the Linebacker’s faster speed enables it to keep up with lighter star mates in running battles, something the Timber Wolf struggled to do. A combination of Ferro Fibrous armor and Endo Steel give the OmniMech 17.5 tons of free pod space. The Linebacker LBK-T is armed with a pair of Plasma Cannons. A Streak LRM-5, Streak SRM-4, Flamer and Active Probe make up the rest of the Omni’s equipment. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2585,7 +2585,7 @@
   </si>
   <si>
     <t xml:space="preserve">Developed during the Draconis Combine's push into the Federated Suns during the 3140s. This variant swaps the Thunderbolt launchers for Silver Bullet Gauss Rifles and are excellent anti-aerospace platforms.[
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2676,7 +2676,7 @@
   </si>
   <si>
     <t xml:space="preserve">This version uses an Endo Steel skeleton, which freed up weight for arm-mounted Snub Nose PPCs and Actuator Enhancement Systems instead of the ER Large Lasers. The armor has also been replaced with Reflective Armor.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.11&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2729,7 +2729,7 @@
   </si>
   <si>
     <t xml:space="preserve">A product of the Kendall BattleMech factory rebuilt as a collaborative project between Kali Yama and the Alphard Trading Corporation, the Quasimodo was intended from the outset to be the next generation of the venerable Hunchback 'Mech.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Laser&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - лазеры&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.07&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2776,7 +2776,7 @@
   </si>
   <si>
     <t xml:space="preserve">After the success of the Mad Cat II design, which increased the tonnage and weaponry of the Mad Cat, Clan Ghost Bear applied these same changes to the medium Ryoken. The ''Gunboat'' variant carries a heavier weapons payload. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2807,7 +2807,7 @@
   </si>
   <si>
     <t xml:space="preserve">A Society redesign of the Ryoken II Chassis to carry both a pair of iATM12, Improved Heavy Large Laser and Flamer.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.27&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3157,7 +3157,7 @@
   </si>
   <si>
     <t xml:space="preserve">A 55 ton OmniMech that blends a lethal cocktail of speed and firepower, the Stormcrow is a common sight in many clan Toumans. Powered by a 330 rated XL Engine and built with a combination of an Endo Steel chassis and Ferro Fibrous armor, the Stormcrow has 19 tons of pod space available. The Stormcrow J is armed with a HAG/30 and an Improved Heavy Large Laser.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3179,7 +3179,7 @@
   </si>
   <si>
     <t xml:space="preserve">A 55 ton OmniMech that blends a lethal cocktail of speed and firepower, the Stormcrow is a common sight in many clan Toumans. Powered by a 330 rated XL Engine and built with a combination of an Endo Steel chassis and Ferro Fibrous armor, the Stormcrow has 19 tons of pod space available. The Stormcrow K is armed with a Gauss Rifle and 4 Improved Heavy Medium Lasers.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3201,7 +3201,7 @@
   </si>
   <si>
     <t xml:space="preserve">A 55 ton OmniMech that blends a lethal cocktail of speed and firepower, the Stormcrow is a common sight in many clan Toumans. Powered by a 330 rated XL Engine and built with a combination of an Endo Steel chassis and Ferro Fibrous armor, the Stormcrow has 19 tons of pod space available. The Stormcrow P is armed with a ER Large Lasers and Streak SRM-6’s. A trio of Medium Pulse Lasers round out the variant.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3223,7 +3223,7 @@
   </si>
   <si>
     <t xml:space="preserve">A sleek, mobile, and versatile design, the Clan Stormcrow was long suspected to be one of the first OmniMechs produced by the Clans. Developed by Clan Snow Raven this variant is unique in that it's intended for vacuum operations. Equipped with an all energy weapon loadout and Laser Heat sinks to cool properly the mech. 4 Improved Jump Jets makes sure the mech can easily maneuver in space.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3251,7 +3251,7 @@
   </si>
   <si>
     <t xml:space="preserve">A 55 ton OmniMech that blends a lethal cocktail of speed and firepower, the Stormcrow is a common sight in many clan Toumans. Powered by a 330 rated XL Engine and built with a combination of an Endo Steel chassis and Ferro Fibrous armor, the Stormcrow has 19 tons of pod space available. The Stormcrow T is armed with paired Large Pulse Lasers and ER Small Pulses. A Medium Pulse Laser, Supercharger and Light Active Probe round out the design.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -4512,7 +4512,7 @@
   </si>
   <si>
     <t xml:space="preserve">A Nova Cat design, the 50 ton Huntsman was designed for Operation Revival and the invasion of the Inner Sphere; first entering production in 3049. An OmniMech, the Huntsman is built around a 250 rated XL Engine with an Endo Steel Skeleton and Ferro Fibrous armour giving the OmniMech, 21.5 tons of pod space. 5 Jump Jets are fixed to the chassis, giving the Huntsman additional flexibility. The Huntsman E is armed with an Improved Heavy Large Laser and a pair of Artemis V enhanced LRM-15’s. A pair of ER Medium Lasers provide additional firepower at close range. A Targeting Computer enhances the weapons accuaracy. \\n\\n
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -4678,7 +4678,7 @@
   </si>
   <si>
     <t xml:space="preserve">Developed during the Draconis Combine's push into the Federated Suns during the 3140s. This variant swaps the Thunderbolt launchers for Silver Bullet Gauss Rifles and are excellent anti-aerospace platforms.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -4712,7 +4712,7 @@
   </si>
   <si>
     <t xml:space="preserve">After the success of the Mad Cat II design, which increased the tonnage and weaponry of the Mad Cat, Clan Ghost Bear applied these same changes to the medium Ryoken. The ''Gunboat'' variant carries a heavier weapons payload.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -4972,19 +4972,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Long range fire support assets, Artillery vehicles mount the big guns that pound stuff into metallic dust. Designed to support allies from range, Artillery can throw a variety of payloads down range; ranging from standard artillery to FASCAM or Inferno loads.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Vehicle Stealth
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 184 30
-&lt;b&gt;Left&lt;/b&gt; 160 30
-&lt;b&gt;Right&lt;/b&gt; 160 30
-&lt;b&gt;Rear&lt;/b&gt; 150 30
-&lt;b&gt;Turret&lt;/b&gt; 200 30
-&lt;b&gt;Total&lt;/b&gt; 854 150</t>
+    <t xml:space="preserve">Средства огневой поддержки дальнего действия, артиллерийские машины несут большие пушки, которые превращают врагов в металлическую пыль. Предназначенная для поддержки союзников, артиллерия может выстреливать на огромные расстояния самые разнообразные виды снарядов; от стандартной артиллерии до FASCAM или Inferno.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Vehicle Stealth
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 184 30
+&lt;b&gt;Левая&lt;/b&gt; 160 30
+&lt;b&gt;Правая&lt;/b&gt; 160 30
+&lt;b&gt;Задняя&lt;/b&gt; 150 30
+&lt;b&gt;Башня&lt;/b&gt; 200 30
+&lt;b&gt;Итого&lt;/b&gt; 854 150</t>
   </si>
   <si>
     <t>vehiclechassisdef_BOLLA_D.YangsThoughts</t>
@@ -5015,19 +5015,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Slower than the Medium Tank, but possessing heavier armor and fire power, the Heavy Tank is a fearsome combatant. Carrying an array of ranged weapons, the Heavy Tank is designed to support allied units from range.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Vehicle Stealth
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 178 30
-&lt;b&gt;Left&lt;/b&gt; 160 30
-&lt;b&gt;Right&lt;/b&gt; 160 30
-&lt;b&gt;Rear&lt;/b&gt; 150 30
-&lt;b&gt;Turret&lt;/b&gt; 200 30
-&lt;b&gt;Total&lt;/b&gt; 848 150</t>
+    <t xml:space="preserve">Медленнее среднего танка, но обладающий превосходной огневой мощью и бронёй, тяжёлый танк - это грозный боец. Carrying an array of ranged weapons, the Heavy Tank is designed to support allied units from range.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Vehicle Stealth
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 178 30
+&lt;b&gt;Левая&lt;/b&gt; 160 30
+&lt;b&gt;Правая&lt;/b&gt; 160 30
+&lt;b&gt;Задняя&lt;/b&gt; 150 30
+&lt;b&gt;Башня&lt;/b&gt; 200 30
+&lt;b&gt;Итого&lt;/b&gt; 848 150</t>
   </si>
   <si>
     <t>vehiclechassisdef_BOLLA_Primary_arty.YangsThoughts</t>
@@ -5051,18 +5051,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A monster of a unit, these heavily armed VTOL's are the epitome of the Gunship. Line breakers and fire support platforms, these are usually found in the front of an attack. Carrying an array of ranged weapons, the Assault VTOL is designed to smash targets at range.
-&lt;b&gt;&lt;color=#ffcc00&gt;VTOL: Ignores Terrain, slow in thin atmosphere.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 6/9 Hex: 180/270 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Armor
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 220 42
-&lt;b&gt;Left&lt;/b&gt; 140 42
-&lt;b&gt;Right&lt;/b&gt; 140 42
-&lt;b&gt;Rear&lt;/b&gt; 100 42
-&lt;b&gt;Total&lt;/b&gt; 620 210</t>
+    <t xml:space="preserve">Эти тяжеловооруженные VTOL-ы просто монстры, олицетворение боевое судно. Действующие как огневая поддержка они способны класть противников штабелями и обычно встречаются на линии атаки. Carrying an array of ranged weapons, the Assault VTOL is designed to smash targets at range.
+&lt;b&gt;&lt;color=#ffcc00&gt;VTOL: игнорирует рельеф местности, медленный в условиях разреженного воздуха.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 6/9 Hex: 180/270 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Armor
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 220 42
+&lt;b&gt;Левая&lt;/b&gt; 140 42
+&lt;b&gt;Правая&lt;/b&gt; 140 42
+&lt;b&gt;Задняя&lt;/b&gt; 100 42
+&lt;b&gt;Итого&lt;/b&gt; 620 210</t>
   </si>
   <si>
     <t>vehiclechassisdef_Cascatelle_Artillery.YangsThoughts</t>
@@ -5087,19 +5087,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A jack of all trades, the Medium tank is the generic stereotype of a tank. Carrying an array of ranged weapons, the Medium Tank is designed to support allied units from range.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Vehicle Stealth
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 140 30
-&lt;b&gt;Left&lt;/b&gt; 125 30
-&lt;b&gt;Right&lt;/b&gt; 125 30
-&lt;b&gt;Rear&lt;/b&gt; 96 30
-&lt;b&gt;Turret&lt;/b&gt; 110 30
-&lt;b&gt;Total&lt;/b&gt; 596 150</t>
+    <t xml:space="preserve">Мастер на все руки, танк среднего класса воплощает в себе классическое представление о танках. Carrying an array of ranged weapons, the Medium Tank is designed to support allied units from range.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Vehicle Stealth
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 140 30
+&lt;b&gt;Левая&lt;/b&gt; 125 30
+&lt;b&gt;Правая&lt;/b&gt; 125 30
+&lt;b&gt;Задняя&lt;/b&gt; 96 30
+&lt;b&gt;Башня&lt;/b&gt; 110 30
+&lt;b&gt;Итого&lt;/b&gt; 596 150</t>
   </si>
   <si>
     <t>vehiclechassisdef_Padilla_Anti-Missile.YangsThoughts</t>
@@ -5124,19 +5124,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">APCs are not fighting vehicles, their main function is to transport infantry squads from one battle to another. However, many APC variants sacrifice troop capacity to mount significant weaponry.
-&lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Armor
-&lt;b&gt;Structure:&lt;/b&gt; Environmental Sealing
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 225 30
-&lt;b&gt;Left&lt;/b&gt; 158 30
-&lt;b&gt;Right&lt;/b&gt; 158 30
-&lt;b&gt;Rear&lt;/b&gt; 125 30
-&lt;b&gt;Turret&lt;/b&gt; 170 30
-&lt;b&gt;Total&lt;/b&gt; 836 150</t>
+    <t xml:space="preserve">БТР не являются боевыми машинами, поскольку их основная функция - перевозить отряды пехоты из одного боя в другой. Однако многие варианты БТР жертвуют пассажирскими местами ради большего вооружения.
+&lt;b&gt;&lt;color=#ffcc00&gt;Гусеничная платформа: хорошее сцепление, резкий поворот.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Armor
+&lt;b&gt;Структура:&lt;/b&gt; Environmental Sealing
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 225 30
+&lt;b&gt;Левая&lt;/b&gt; 158 30
+&lt;b&gt;Правая&lt;/b&gt; 158 30
+&lt;b&gt;Задняя&lt;/b&gt; 125 30
+&lt;b&gt;Башня&lt;/b&gt; 170 30
+&lt;b&gt;Итого&lt;/b&gt; 836 150</t>
   </si>
   <si>
     <t>vehiclechassisdef_PROWLER_3140.YangsThoughts</t>
@@ -5160,18 +5160,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fast and versatile, the Light Tank is poorly suited to direct combat but has a variety of other uses. Intended as a scout or vanguard unit, the Light Tank is constantly on the move, probing ahead of the rest of the troops.
-&lt;b&gt;&lt;color=#ffcc00&gt;Hover: Fast on open ground and water, slow in rough terrain, not very agile.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 10/15 Hex: 300/450 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Heavy Ferro
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 245 20
-&lt;b&gt;Left&lt;/b&gt; 120 20
-&lt;b&gt;Right&lt;/b&gt; 120 20
-&lt;b&gt;Rear&lt;/b&gt; 90 20
-&lt;b&gt;Total&lt;/b&gt; 575 80</t>
+    <t xml:space="preserve">Быстрый легкий танк плохо подходит для прямого столкновения, но имеет множество других применений. Предназначенный для разведки, легкий танк постоянно в движении, опережая остальные войска.
+&lt;b&gt;&lt;color=#ffcc00&gt;Воздушная подушка: быстрый на открытых участках и воде, медленный на пересеченной местности, не очень маневренный.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 10/15 Hex: 300/450 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Heavy Ferro
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 245 20
+&lt;b&gt;Левая&lt;/b&gt; 120 20
+&lt;b&gt;Правая&lt;/b&gt; 120 20
+&lt;b&gt;Задняя&lt;/b&gt; 90 20
+&lt;b&gt;Итого&lt;/b&gt; 575 80</t>
   </si>
   <si>
     <t>vehiclechassisdef_SALADIN_II.YangsThoughts</t>
@@ -5202,19 +5202,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fast and versatile, the Light Tank is poorly suited to direct combat but has a variety of other uses. Intended as a scout or vanguard unit, the Light Tank is constantly on the move, probing ahead of the rest of the troops.
-&lt;b&gt;&lt;color=#ffcc00&gt;Hover: Fast on open ground and water, slow in rough terrain, not very agile.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 10/15 Hex: 300/450 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Heavy Ferro
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 175 20
-&lt;b&gt;Left&lt;/b&gt; 105 20
-&lt;b&gt;Right&lt;/b&gt; 105 20
-&lt;b&gt;Rear&lt;/b&gt; 75 20
-&lt;b&gt;Turret&lt;/b&gt; 115 20
-&lt;b&gt;Total&lt;/b&gt; 575 100</t>
+    <t xml:space="preserve">Быстрый легкий танк плохо подходит для прямого столкновения, но имеет множество других применений. Предназначенный для разведки, легкий танк постоянно в движении, опережая остальные войска.
+&lt;b&gt;&lt;color=#ffcc00&gt;Воздушная подушка: быстрый на открытых участках и воде, медленный на пересеченной местности, не очень маневренный.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 10/15 Hex: 300/450 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Heavy Ferro
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 175 20
+&lt;b&gt;Левая&lt;/b&gt; 105 20
+&lt;b&gt;Правая&lt;/b&gt; 105 20
+&lt;b&gt;Задняя&lt;/b&gt; 75 20
+&lt;b&gt;Башня&lt;/b&gt; 115 20
+&lt;b&gt;Итого&lt;/b&gt; 575 100</t>
   </si>
   <si>
     <t>vehiclechassisdef_SCIMITAR_MKII_3136.YangsThoughts</t>
@@ -5239,19 +5239,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fast and versatile, the Light Tank is poorly suited to direct combat but has a variety of other uses. Intended as a scout or vanguard unit, the Light Tank is constantly on the move, probing ahead of the rest of the troops.
-&lt;b&gt;&lt;color=#ffcc00&gt;Hover: Fast on open ground and water, slow in rough terrain, not very agile.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 10/15 Hex: 300/450 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Heavy Ferro
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 185 20
-&lt;b&gt;Left&lt;/b&gt; 115 20
-&lt;b&gt;Right&lt;/b&gt; 115 20
-&lt;b&gt;Rear&lt;/b&gt; 85 20
-&lt;b&gt;Turret&lt;/b&gt; 125 20
-&lt;b&gt;Total&lt;/b&gt; 625 100</t>
+    <t xml:space="preserve">Быстрый легкий танк плохо подходит для прямого столкновения, но имеет множество других применений. Предназначенный для разведки, легкий танк постоянно в движении, опережая остальные войска.
+&lt;b&gt;&lt;color=#ffcc00&gt;Воздушная подушка: быстрый на открытых участках и воде, медленный на пересеченной местности, не очень маневренный.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 10/15 Hex: 300/450 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Heavy Ferro
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 185 20
+&lt;b&gt;Левая&lt;/b&gt; 115 20
+&lt;b&gt;Правая&lt;/b&gt; 115 20
+&lt;b&gt;Задняя&lt;/b&gt; 85 20
+&lt;b&gt;Башня&lt;/b&gt; 125 20
+&lt;b&gt;Итого&lt;/b&gt; 625 100</t>
   </si>
   <si>
     <t>vehiclechassisdef_SCIMITAR_MKII_BC3.YangsThoughts</t>
@@ -5276,19 +5276,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Long range fire support assets, Artillery vehicles mount the big guns that pound stuff into metallic dust. Mounting large calibre weapons, Artillery excels at killing targets from afar.
-&lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fuel Cell: Improved vehicle engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 341 40
-&lt;b&gt;Left&lt;/b&gt; 202 40
-&lt;b&gt;Right&lt;/b&gt; 202 40
-&lt;b&gt;Rear&lt;/b&gt; 199 40
-&lt;b&gt;Turret&lt;/b&gt; 210 40
-&lt;b&gt;Total&lt;/b&gt; 1154 200</t>
+    <t xml:space="preserve">Средства огневой поддержки дальнего действия, артиллерийские машины несут большие пушки, которые превращают врагов в металлический пепел. Артиллерия, оснащенная крупнокалиберным оружием, отлично справляется с поражением целей издалека.
+&lt;b&gt;&lt;color=#ffcc00&gt;Гусеничная платформа: хорошее сцепление, резкий поворот.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 341 40
+&lt;b&gt;Левая&lt;/b&gt; 202 40
+&lt;b&gt;Правая&lt;/b&gt; 202 40
+&lt;b&gt;Задняя&lt;/b&gt; 199 40
+&lt;b&gt;Башня&lt;/b&gt; 210 40
+&lt;b&gt;Итого&lt;/b&gt; 1154 200</t>
   </si>
   <si>
     <t>vehiclechassisdef_TESTUDO.YangsThoughts</t>
@@ -5313,19 +5313,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Slower than the Medium Tank, but possessing heavier armor and fire power, the Heavy Tank is a fearsome combatant. Carrying an array of ranged weapons, the Heavy Tank is designed to support allied units from range.
-&lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Heavy Ferro
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 350 35
-&lt;b&gt;Left&lt;/b&gt; 284 35
-&lt;b&gt;Right&lt;/b&gt; 284 35
-&lt;b&gt;Rear&lt;/b&gt; 236 35
-&lt;b&gt;Turret&lt;/b&gt; 271 35
-&lt;b&gt;Total&lt;/b&gt; 1425 175</t>
+    <t xml:space="preserve">Боевая машина Winston была фронтовой боевой машиной Республики Сферы, производство которой началось в 3085 году. A Dark Age variant developed in 3114, this model is powered by an XXL Fusion Engine. It is armed with two AMS, two Clan-built LRM-15s, and twin TSEMP Cannons. The Targeting Computer remains as well.
+&lt;b&gt;&lt;color=#ffcc00&gt;Гусеничная платформа: хорошее сцепление, резкий поворот.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Heavy Ferro
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 350 35
+&lt;b&gt;Левая&lt;/b&gt; 284 35
+&lt;b&gt;Правая&lt;/b&gt; 284 35
+&lt;b&gt;Задняя&lt;/b&gt; 228 35
+&lt;b&gt;Башня&lt;/b&gt; 271 35
+&lt;b&gt;Итого&lt;/b&gt; 1417 175</t>
   </si>
   <si>
     <t>vehiclechassisdef_WINSTON_TSEMP.YangsThoughts</t>
@@ -5353,6 +5353,21 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Боевая машина Winston была фронтовой боевой машиной Республики Сферы, производство которой началось в 3085 году. A late Dark Age variant, introduced in 3133, this variant is powered by an XXL Fusion Engine and is armed with a pair of Large Re-Engineered Lasers and a pair of Clan-spec LRM-15s sharing three tons of ammo. Front-mounted AMS adds to the tank's defenses.
+&lt;b&gt;&lt;color=#ffcc00&gt;Гусеничная платформа: хорошее сцепление, резкий поворот.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Heavy Ferro
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 350 35
+&lt;b&gt;Левая&lt;/b&gt; 284 35
+&lt;b&gt;Правая&lt;/b&gt; 284 35
+&lt;b&gt;Задняя&lt;/b&gt; 236 35
+&lt;b&gt;Башня&lt;/b&gt; 271 35
+&lt;b&gt;Итого&lt;/b&gt; 1425 175</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_WINSTON_XXL.YangsThoughts</t>
   </si>
   <si>
@@ -5429,7 +5444,7 @@
   </si>
   <si>
     <t xml:space="preserve">Built by Luthien Armor Works of New Samarkand, the Hitotsume Kozo is a medium BattleMech designed to serve in the Draconis Combine Mustered Soldiery. This 'Mech's creation was partially influenced by an unofficial cultural rebirth. Keeping this in mind, LAW styled the appearance of the Hitotsume Kozo after the ancient Japanese Bushido armor worn by the samurai warriors during that time period on Terra. It received a poor reception by front-line troops due its advanced features and high heat output; however, it was appreciated when transferred to less-favored combat units, such as Ghost Regiments, as these less-fickle warriors adapted to the design's quirks and turned it into an effective combat unit.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -5507,19 +5522,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The JES III Missile Carrier was originally built in the 3130s prior to the fall of the HPG Communication grid. The JES III was designed to be faster and better armored than its two predecessors. The vehicle's main armaments consist of four LRM-15 launchers mounted in the turret. For self-defense against regular infantry the vehicle also mounts two machine guns. The machine guns share a half ton of ammunition, while the LRM-15s can draw from a six-ton ammunition bay.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Armor
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 200 30
-&lt;b&gt;Left&lt;/b&gt; 113 30
-&lt;b&gt;Right&lt;/b&gt; 113 30
-&lt;b&gt;Rear&lt;/b&gt; 100 30
-&lt;b&gt;Turret&lt;/b&gt; 130 30
-&lt;b&gt;Total&lt;/b&gt; 656 150</t>
+    <t xml:space="preserve">Ракетоноситель JES III был первоначально построен в 3130-х годах до падения сети связи HPG. JES III разработан, чтобы быть быстрее и лучше бронированным, чем два его предшественника. The vehicle's main armaments consist of four LRM-15 launchers mounted in the turret. For self-defense against regular infantry the vehicle also mounts two machine guns. The machine guns share a half ton of ammunition, while the LRM-15s can draw from a six-ton ammunition bay.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Armor
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 200 30
+&lt;b&gt;Левая&lt;/b&gt; 113 30
+&lt;b&gt;Правая&lt;/b&gt; 113 30
+&lt;b&gt;Задняя&lt;/b&gt; 100 30
+&lt;b&gt;Башня&lt;/b&gt; 130 30
+&lt;b&gt;Итого&lt;/b&gt; 656 150</t>
   </si>
   <si>
     <t>vehiclechassisdef_JES_III.YangsThoughts</t>
@@ -5544,19 +5559,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The JES III Missile Carrier was originally built in the 3130s prior to the fall of the HPG Communication grid. The JES III was designed to be faster and better armored than its two predecessors. The vehicle's main armaments consist of four LRM-15 launchers mounted in the turret. For self-defense against regular infantry the vehicle also mounts two machine guns. This version of the JES III reduces the LRM ammunition to five tons, and adds a C3 Slave unit.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Armor
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 208 30
-&lt;b&gt;Left&lt;/b&gt; 109 30
-&lt;b&gt;Right&lt;/b&gt; 109 30
-&lt;b&gt;Rear&lt;/b&gt; 100 30
-&lt;b&gt;Turret&lt;/b&gt; 130 30
-&lt;b&gt;Total&lt;/b&gt; 656 150</t>
+    <t xml:space="preserve">Ракетоноситель JES III был первоначально построен в 3130-х годах до падения сети связи HPG. JES III разработан, чтобы быть быстрее и лучше бронированным, чем два его предшественника. The vehicle's main armaments consist of four LRM-15 launchers mounted in the turret. For self-defense against regular infantry the vehicle also mounts two machine guns. This version of the JES III reduces the LRM ammunition to five tons, and adds a C3 Slave unit.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Armor
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 208 30
+&lt;b&gt;Левая&lt;/b&gt; 109 30
+&lt;b&gt;Правая&lt;/b&gt; 109 30
+&lt;b&gt;Задняя&lt;/b&gt; 100 30
+&lt;b&gt;Башня&lt;/b&gt; 130 30
+&lt;b&gt;Итого&lt;/b&gt; 656 150</t>
   </si>
   <si>
     <t>vehiclechassisdef_JES_III_C3.YangsThoughts</t>
@@ -5581,19 +5596,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The JES III Missile Carrier was originally built in the 3130s prior to the fall of the HPG Communication grid. The JES III was designed to be faster and better armored than its two predecessors. This variant removes the LRM launchers and replaces them with four MML-9 missile launchers and a pair of ER Medium Lasers. For self-defense against regular infantry the vehicle also mounts two machine guns. The machine guns share a half ton of ammunition, while the MMLs can draw from an eight-ton ammunition bay.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Armor
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 200 30
-&lt;b&gt;Left&lt;/b&gt; 101 30
-&lt;b&gt;Right&lt;/b&gt; 101 30
-&lt;b&gt;Rear&lt;/b&gt; 100 30
-&lt;b&gt;Turret&lt;/b&gt; 130 30
-&lt;b&gt;Total&lt;/b&gt; 632 150</t>
+    <t xml:space="preserve">Ракетоноситель JES III был первоначально построен в 3130-х годах до падения сети связи HPG. JES III разработан, чтобы быть быстрее и лучше бронированным, чем два его предшественника. This variant removes the LRM launchers and replaces them with four MML-9 missile launchers and a pair of ER Medium Lasers. For self-defense against regular infantry the vehicle also mounts two machine guns. The machine guns share a half ton of ammunition, while the MMLs can draw from an eight-ton ammunition bay.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Armor
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 200 30
+&lt;b&gt;Левая&lt;/b&gt; 101 30
+&lt;b&gt;Правая&lt;/b&gt; 101 30
+&lt;b&gt;Задняя&lt;/b&gt; 100 30
+&lt;b&gt;Башня&lt;/b&gt; 130 30
+&lt;b&gt;Итого&lt;/b&gt; 632 150</t>
   </si>
   <si>
     <t>vehiclechassisdef_JES_III_MML.YangsThoughts</t>
@@ -5618,19 +5633,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The JES III Missile Carrier was originally built in the 3130s prior to the fall of the HPG Communication grid. The JES III was designed to be faster and better armored than its two predecessors. This variant removes the machine guns and ammunition of the standard JES III and fits a larger engine in their place. This larger engine allows the tank to reach a top speed of 64 km/h.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Heavy Ferro
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 210 30
-&lt;b&gt;Left&lt;/b&gt; 110 30
-&lt;b&gt;Right&lt;/b&gt; 110 30
-&lt;b&gt;Rear&lt;/b&gt; 110 30
-&lt;b&gt;Turret&lt;/b&gt; 130 30
-&lt;b&gt;Total&lt;/b&gt; 670 150</t>
+    <t xml:space="preserve">Ракетоноситель JES III был первоначально построен в 3130-х годах до падения сети связи HPG. JES III разработан, чтобы быть быстрее и лучше бронированным, чем два его предшественника. This variant removes the machine guns and ammunition of the standard JES III and fits a larger engine in their place. This larger engine allows the tank to reach a top speed of 64 km/h.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Heavy Ferro
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 210 30
+&lt;b&gt;Левая&lt;/b&gt; 110 30
+&lt;b&gt;Правая&lt;/b&gt; 110 30
+&lt;b&gt;Задняя&lt;/b&gt; 110 30
+&lt;b&gt;Башня&lt;/b&gt; 130 30
+&lt;b&gt;Итого&lt;/b&gt; 670 150</t>
   </si>
   <si>
     <t>vehiclechassisdef_JES_III_Speed.YangsThoughts</t>
@@ -5658,19 +5673,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The JES III Missile Carrier was originally built in the 3130s prior to the fall of the HPG Communication grid. The JES III was designed to be faster and better armored than its two predecessors. This variant replaces the LRM-15s with a quartet of Thunderbolt 10 missile launchers. For self-defense against regular infantry the vehicle also mounts two machine guns. The machine guns share a half ton of ammunition, while the Thunderbolts can draw from a six-ton ammunition bay.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Armor
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 200 30
-&lt;b&gt;Left&lt;/b&gt; 109 30
-&lt;b&gt;Right&lt;/b&gt; 109 30
-&lt;b&gt;Rear&lt;/b&gt; 100 30
-&lt;b&gt;Turret&lt;/b&gt; 130 30
-&lt;b&gt;Total&lt;/b&gt; 648 150</t>
+    <t xml:space="preserve">Ракетоноситель JES III был первоначально построен в 3130-х годах до падения сети связи HPG. JES III разработан, чтобы быть быстрее и лучше бронированным, чем два его предшественника. This variant replaces the LRM-15s with a quartet of Thunderbolt 10 missile launchers. For self-defense against regular infantry the vehicle also mounts two machine guns. The machine guns share a half ton of ammunition, while the Thunderbolts can draw from a six-ton ammunition bay.
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Armor
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 200 30
+&lt;b&gt;Левая&lt;/b&gt; 109 30
+&lt;b&gt;Правая&lt;/b&gt; 109 30
+&lt;b&gt;Задняя&lt;/b&gt; 100 30
+&lt;b&gt;Башня&lt;/b&gt; 130 30
+&lt;b&gt;Итого&lt;/b&gt; 648 150</t>
   </si>
   <si>
     <t>vehiclechassisdef_JES_III_TBM.YangsThoughts</t>
@@ -5696,18 +5711,18 @@
   </si>
   <si>
     <t xml:space="preserve">Unveiled in 3110 the Partisan AA Vehicle, a lighter take on the original Partisan Air Defense Tank, was meant to be cheaper and faster but still be equally effective in the anti-aircraft role. Produced in 3134, this version of the Partisan AA would give the vehicle a longer reach than before, while gaining secondary weaponry which the Standard Model lacked. Gone is the standard LB-5X Class autocannons, in their place are a pair of Class 2 Hypervelocity Autocannons. Though lacking the punch of the Standard's bigger LB-5Xs, the HVAC/2s accuracy is improved by adding a Targeting Computer to the vehicle. As a secondary weapon, the vehicle is fitted with a 10-tubed Rocket Launcher in the turret.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 120 25
-&lt;b&gt;Left&lt;/b&gt; 120 25
-&lt;b&gt;Right&lt;/b&gt; 120 25
-&lt;b&gt;Rear&lt;/b&gt; 90 25
-&lt;b&gt;Turret&lt;/b&gt; 90 25
-&lt;b&gt;Total&lt;/b&gt; 540 125</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 120 25
+&lt;b&gt;Левая&lt;/b&gt; 120 25
+&lt;b&gt;Правая&lt;/b&gt; 120 25
+&lt;b&gt;Задняя&lt;/b&gt; 90 25
+&lt;b&gt;Башня&lt;/b&gt; 90 25
+&lt;b&gt;Итого&lt;/b&gt; 540 125</t>
   </si>
   <si>
     <t>vehiclechassisdef_Partisan_AA_vehicle_mk2.YangsThoughts</t>
@@ -5736,18 +5751,18 @@
   </si>
   <si>
     <t xml:space="preserve">The Pilum Heavy Tank is a product of Valiant Vehicles of Johnsondale, as a new combat vehicle for the Federated Commonwealth's Armed Forces. Valiant Vehicles created the vehicle based on the success of its Striker Missile Vehicle. Initially introduced in 3058, the vehicle received criticism for its chassis, which is based on a wheeled configuration instead of the more traditional tracked option. This Dark Age variant carries a Boosted C3 system and Extended LRM launchers and its large ammunition bins are protected by CASE.
-&lt;b&gt;&lt;color=#ffcc00&gt;Wheeled: Fast in open ground, slow in rough terrain.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 200 35
-&lt;b&gt;Left&lt;/b&gt; 110 35
-&lt;b&gt;Right&lt;/b&gt; 110 35
-&lt;b&gt;Rear&lt;/b&gt; 100 35
-&lt;b&gt;Turret&lt;/b&gt; 200 35
-&lt;b&gt;Total&lt;/b&gt; 720 175</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Колесная база: быстрый на открытых участках, медленный на пересеченной местности.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 200 35
+&lt;b&gt;Левая&lt;/b&gt; 110 35
+&lt;b&gt;Правая&lt;/b&gt; 110 35
+&lt;b&gt;Задняя&lt;/b&gt; 100 35
+&lt;b&gt;Башня&lt;/b&gt; 200 35
+&lt;b&gt;Итого&lt;/b&gt; 720 175</t>
   </si>
   <si>
     <t>vehiclechassisdef_PILUM_ELRM.YangsThoughts</t>
@@ -6107,15 +6122,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A796" workbookViewId="0">
-      <selection activeCell="C823" sqref="C1:C823"/>
+    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
+      <selection activeCell="C835" sqref="C835"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="73" customWidth="1" style="2"/>
-    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.140625" customWidth="1" style="2"/>
+    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19233,7 +19248,7 @@
         <v>1453</v>
       </c>
       <c r="C772" s="4" t="s">
-        <v>1414</v>
+        <v>1453</v>
       </c>
       <c r="D772" s="2" t="s">
         <v>3</v>
@@ -19250,7 +19265,7 @@
         <v>1455</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>1451</v>
+        <v>1456</v>
       </c>
       <c r="D773" s="2" t="s">
         <v>3</v>
@@ -19261,13 +19276,13 @@
     </row>
     <row r="774">
       <c r="A774" s="2" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B774" s="2" t="s">
         <v>1453</v>
       </c>
       <c r="C774" s="4" t="s">
-        <v>1414</v>
+        <v>1453</v>
       </c>
       <c r="D774" s="2" t="s">
         <v>3</v>
@@ -19278,7 +19293,7 @@
     </row>
     <row r="775">
       <c r="A775" s="2" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B775" s="2" t="s">
         <v>1410</v>
@@ -19295,7 +19310,7 @@
     </row>
     <row r="776">
       <c r="A776" s="2" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B776" s="2" t="s">
         <v>1416</v>
@@ -19312,7 +19327,7 @@
     </row>
     <row r="777">
       <c r="A777" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B777" s="2" t="s">
         <v>1420</v>
@@ -19329,7 +19344,7 @@
     </row>
     <row r="778">
       <c r="A778" s="2" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B778" s="2" t="s">
         <v>1424</v>
@@ -19346,7 +19361,7 @@
     </row>
     <row r="779">
       <c r="A779" s="2" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B779" s="2" t="s">
         <v>1428</v>
@@ -19363,7 +19378,7 @@
     </row>
     <row r="780">
       <c r="A780" s="2" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B780" s="2" t="s">
         <v>1432</v>
@@ -19380,7 +19395,7 @@
     </row>
     <row r="781">
       <c r="A781" s="2" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B781" s="2" t="s">
         <v>1432</v>
@@ -19397,7 +19412,7 @@
     </row>
     <row r="782">
       <c r="A782" s="2" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B782" s="2" t="s">
         <v>1438</v>
@@ -19414,7 +19429,7 @@
     </row>
     <row r="783">
       <c r="A783" s="2" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B783" s="2" t="s">
         <v>1442</v>
@@ -19431,7 +19446,7 @@
     </row>
     <row r="784">
       <c r="A784" s="2" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B784" s="2" t="s">
         <v>1446</v>
@@ -19448,7 +19463,7 @@
     </row>
     <row r="785">
       <c r="A785" s="2" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B785" s="2" t="s">
         <v>1450</v>
@@ -19465,13 +19480,13 @@
     </row>
     <row r="786">
       <c r="A786" s="2" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B786" s="2" t="s">
         <v>1455</v>
       </c>
       <c r="C786" s="4" t="s">
-        <v>1451</v>
+        <v>1456</v>
       </c>
       <c r="D786" s="2" t="s">
         <v>3</v>
@@ -19482,13 +19497,13 @@
     </row>
     <row r="787">
       <c r="A787" s="2" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="E787" s="2">
         <v>787</v>
@@ -19496,13 +19511,13 @@
     </row>
     <row r="788">
       <c r="A788" s="2" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C788" s="4" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="E788" s="2">
         <v>788</v>
@@ -19510,13 +19525,13 @@
     </row>
     <row r="789">
       <c r="A789" s="2" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="C789" s="4" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="E789" s="2">
         <v>789</v>
@@ -19524,13 +19539,13 @@
     </row>
     <row r="790">
       <c r="A790" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C790" s="4" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="E790" s="2">
         <v>790</v>
@@ -19538,13 +19553,13 @@
     </row>
     <row r="791">
       <c r="A791" s="2" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C791" s="4" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="E791" s="2">
         <v>791</v>
@@ -19552,13 +19567,13 @@
     </row>
     <row r="792">
       <c r="A792" s="2" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C792" s="4" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="E792" s="2">
         <v>792</v>
@@ -19566,13 +19581,13 @@
     </row>
     <row r="793">
       <c r="A793" s="2" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C793" s="4" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="E793" s="2">
         <v>793</v>
@@ -19580,13 +19595,13 @@
     </row>
     <row r="794">
       <c r="A794" s="2" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C794" s="4" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="E794" s="2">
         <v>794</v>
@@ -19594,13 +19609,13 @@
     </row>
     <row r="795">
       <c r="A795" s="2" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C795" s="4" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="E795" s="2">
         <v>795</v>
@@ -19608,13 +19623,13 @@
     </row>
     <row r="796">
       <c r="A796" s="2" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="C796" s="4" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="E796" s="2">
         <v>796</v>
@@ -19622,7 +19637,7 @@
     </row>
     <row r="797">
       <c r="A797" s="2" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B797" s="2" t="s">
         <v>19</v>
@@ -19636,13 +19651,13 @@
     </row>
     <row r="798">
       <c r="A798" s="2" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="C798" s="4" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E798" s="2">
         <v>798</v>
@@ -19650,13 +19665,13 @@
     </row>
     <row r="799">
       <c r="A799" s="2" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C799" s="4" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="E799" s="2">
         <v>799</v>
@@ -19664,13 +19679,13 @@
     </row>
     <row r="800">
       <c r="A800" s="2" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C800" s="4" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="E800" s="2">
         <v>800</v>
@@ -19678,13 +19693,13 @@
     </row>
     <row r="801">
       <c r="A801" s="2" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C801" s="4" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="E801" s="2">
         <v>801</v>
@@ -19692,13 +19707,13 @@
     </row>
     <row r="802">
       <c r="A802" s="2" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="C802" s="4" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="E802" s="2">
         <v>802</v>
@@ -19706,13 +19721,13 @@
     </row>
     <row r="803">
       <c r="A803" s="2" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C803" s="4" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="E803" s="2">
         <v>803</v>
@@ -19720,13 +19735,13 @@
     </row>
     <row r="804">
       <c r="A804" s="2" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B804" s="2" t="s">
         <v>1413</v>
       </c>
       <c r="C804" s="4" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E804" s="2">
         <v>804</v>
@@ -19734,13 +19749,13 @@
     </row>
     <row r="805">
       <c r="A805" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C805" s="4" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="E805" s="2">
         <v>805</v>
@@ -19748,13 +19763,13 @@
     </row>
     <row r="806">
       <c r="A806" s="2" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B806" s="2" t="s">
         <v>1413</v>
       </c>
       <c r="C806" s="4" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E806" s="2">
         <v>806</v>
@@ -19762,13 +19777,13 @@
     </row>
     <row r="807">
       <c r="A807" s="2" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C807" s="4" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="E807" s="2">
         <v>807</v>
@@ -19776,13 +19791,13 @@
     </row>
     <row r="808">
       <c r="A808" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B808" s="2" t="s">
         <v>1413</v>
       </c>
       <c r="C808" s="4" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E808" s="2">
         <v>808</v>
@@ -19790,13 +19805,13 @@
     </row>
     <row r="809">
       <c r="A809" s="2" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C809" s="4" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="E809" s="2">
         <v>809</v>
@@ -19804,13 +19819,13 @@
     </row>
     <row r="810">
       <c r="A810" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C810" s="4" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="E810" s="2">
         <v>810</v>
@@ -19818,13 +19833,13 @@
     </row>
     <row r="811">
       <c r="A811" s="2" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C811" s="4" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="E811" s="2">
         <v>811</v>
@@ -19832,13 +19847,13 @@
     </row>
     <row r="812">
       <c r="A812" s="2" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B812" s="2" t="s">
         <v>1413</v>
       </c>
       <c r="C812" s="4" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E812" s="2">
         <v>812</v>
@@ -19846,13 +19861,13 @@
     </row>
     <row r="813">
       <c r="A813" s="2" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C813" s="4" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="E813" s="2">
         <v>813</v>
@@ -19860,13 +19875,13 @@
     </row>
     <row r="814">
       <c r="A814" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C814" s="4" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="E814" s="2">
         <v>814</v>
@@ -19874,13 +19889,13 @@
     </row>
     <row r="815">
       <c r="A815" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C815" s="4" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E815" s="2">
         <v>815</v>
@@ -19888,13 +19903,13 @@
     </row>
     <row r="816">
       <c r="A816" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B816" s="2" t="s">
         <v>1413</v>
       </c>
       <c r="C816" s="4" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E816" s="2">
         <v>816</v>
@@ -19902,13 +19917,13 @@
     </row>
     <row r="817">
       <c r="A817" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C817" s="4" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="E817" s="2">
         <v>817</v>
@@ -19916,13 +19931,13 @@
     </row>
     <row r="818">
       <c r="A818" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C818" s="4" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="E818" s="2">
         <v>818</v>
@@ -19930,13 +19945,13 @@
     </row>
     <row r="819">
       <c r="A819" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C819" s="4" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="E819" s="2">
         <v>819</v>
@@ -19944,13 +19959,13 @@
     </row>
     <row r="820">
       <c r="A820" s="2" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C820" s="4" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="E820" s="2">
         <v>820</v>
@@ -19958,13 +19973,13 @@
     </row>
     <row r="821">
       <c r="A821" s="2" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C821" s="4" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="E821" s="2">
         <v>821</v>
@@ -19972,13 +19987,13 @@
     </row>
     <row r="822">
       <c r="A822" s="2" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C822" s="4" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="E822" s="2">
         <v>822</v>
@@ -19986,13 +20001,13 @@
     </row>
     <row r="823">
       <c r="A823" s="2" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C823" s="4" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E823" s="2">
         <v>823</v>
